--- a/data/nzd0508/nzd0508.xlsx
+++ b/data/nzd0508/nzd0508.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB420"/>
+  <dimension ref="A1:AB423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30450,6 +30450,200 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="n">
+        <v>363.7666666666667</v>
+      </c>
+      <c r="T421" t="n">
+        <v>343.9966666666667</v>
+      </c>
+      <c r="U421" t="n">
+        <v>339.3533333333333</v>
+      </c>
+      <c r="V421" t="n">
+        <v>343.920909090909</v>
+      </c>
+      <c r="W421" t="inlineStr"/>
+      <c r="X421" t="inlineStr"/>
+      <c r="Y421" t="n">
+        <v>363.7188888888889</v>
+      </c>
+      <c r="Z421" t="inlineStr"/>
+      <c r="AA421" t="inlineStr"/>
+      <c r="AB421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:49+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
+      <c r="R422" t="n">
+        <v>370.2671428571429</v>
+      </c>
+      <c r="S422" t="n">
+        <v>340.6566666666667</v>
+      </c>
+      <c r="T422" t="n">
+        <v>348.4066666666667</v>
+      </c>
+      <c r="U422" t="n">
+        <v>334.8133333333333</v>
+      </c>
+      <c r="V422" t="n">
+        <v>334.6518181818182</v>
+      </c>
+      <c r="W422" t="n">
+        <v>333.9918181818182</v>
+      </c>
+      <c r="X422" t="n">
+        <v>334.5918181818182</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>341.1355555555555</v>
+      </c>
+      <c r="Z422" t="n">
+        <v>339.07</v>
+      </c>
+      <c r="AA422" t="n">
+        <v>350.4918181818182</v>
+      </c>
+      <c r="AB422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>307.9466666666667</v>
+      </c>
+      <c r="C423" t="n">
+        <v>306.5066666666667</v>
+      </c>
+      <c r="D423" t="n">
+        <v>306.6266666666667</v>
+      </c>
+      <c r="E423" t="n">
+        <v>313.4942857142857</v>
+      </c>
+      <c r="F423" t="n">
+        <v>322.69</v>
+      </c>
+      <c r="G423" t="n">
+        <v>339.47</v>
+      </c>
+      <c r="H423" t="n">
+        <v>350.3242857142857</v>
+      </c>
+      <c r="I423" t="n">
+        <v>351.7055555555555</v>
+      </c>
+      <c r="J423" t="n">
+        <v>349.5842857142857</v>
+      </c>
+      <c r="K423" t="n">
+        <v>349.29</v>
+      </c>
+      <c r="L423" t="n">
+        <v>351.7942857142857</v>
+      </c>
+      <c r="M423" t="n">
+        <v>348.07</v>
+      </c>
+      <c r="N423" t="n">
+        <v>342.3555555555556</v>
+      </c>
+      <c r="O423" t="n">
+        <v>342.45</v>
+      </c>
+      <c r="P423" t="n">
+        <v>340.03</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>328.5018181818182</v>
+      </c>
+      <c r="R423" t="n">
+        <v>336.2071428571429</v>
+      </c>
+      <c r="S423" t="n">
+        <v>343.8966666666667</v>
+      </c>
+      <c r="T423" t="n">
+        <v>341.4166666666667</v>
+      </c>
+      <c r="U423" t="n">
+        <v>338.1733333333333</v>
+      </c>
+      <c r="V423" t="n">
+        <v>339.8618181818182</v>
+      </c>
+      <c r="W423" t="n">
+        <v>338.4718181818182</v>
+      </c>
+      <c r="X423" t="n">
+        <v>340.2818181818182</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>352.0355555555556</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>375.69</v>
+      </c>
+      <c r="AA423" t="inlineStr"/>
+      <c r="AB423" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30461,7 +30655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35369,6 +35563,56 @@
       </c>
       <c r="B490" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.98</v>
       </c>
     </row>
   </sheetData>
@@ -35531,28 +35775,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.5020841579880571</v>
+        <v>0.5509929848939161</v>
       </c>
       <c r="J2" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K2" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006232114831867475</v>
+        <v>0.00754041649338455</v>
       </c>
       <c r="M2" t="n">
-        <v>37.74749899695205</v>
+        <v>37.78536991032824</v>
       </c>
       <c r="N2" t="n">
-        <v>1679.234733487969</v>
+        <v>1679.077310495317</v>
       </c>
       <c r="O2" t="n">
-        <v>40.97846670494113</v>
+        <v>40.97654585851907</v>
       </c>
       <c r="P2" t="n">
-        <v>254.1867306688614</v>
+        <v>253.6164704552999</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -35602,28 +35846,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1328030791387262</v>
+        <v>0.1540385286453433</v>
       </c>
       <c r="J3" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K3" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005892452087532529</v>
+        <v>0.0007988969253835965</v>
       </c>
       <c r="M3" t="n">
-        <v>29.8937004023676</v>
+        <v>29.83435469131186</v>
       </c>
       <c r="N3" t="n">
-        <v>1322.008190628728</v>
+        <v>1317.776417504149</v>
       </c>
       <c r="O3" t="n">
-        <v>36.35943055974238</v>
+        <v>36.30119030423312</v>
       </c>
       <c r="P3" t="n">
-        <v>282.0524962962044</v>
+        <v>281.8105434564144</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -35679,28 +35923,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2378629840525209</v>
+        <v>0.2538841091675572</v>
       </c>
       <c r="J4" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K4" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003321515568045941</v>
+        <v>0.003807752144099119</v>
       </c>
       <c r="M4" t="n">
-        <v>22.92423839883788</v>
+        <v>22.90984587726577</v>
       </c>
       <c r="N4" t="n">
-        <v>720.1622742558854</v>
+        <v>718.4143480788528</v>
       </c>
       <c r="O4" t="n">
-        <v>26.83583936186617</v>
+        <v>26.80325256529238</v>
       </c>
       <c r="P4" t="n">
-        <v>283.0109516811918</v>
+        <v>282.8245198413854</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -35750,28 +35994,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1027739351217051</v>
+        <v>0.122531228546933</v>
       </c>
       <c r="J5" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K5" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003813432529413685</v>
+        <v>0.0005459679334661738</v>
       </c>
       <c r="M5" t="n">
-        <v>31.08558679661928</v>
+        <v>31.04853269639037</v>
       </c>
       <c r="N5" t="n">
-        <v>1210.028853486763</v>
+        <v>1206.535226630593</v>
       </c>
       <c r="O5" t="n">
-        <v>34.78546899909161</v>
+        <v>34.7352159433419</v>
       </c>
       <c r="P5" t="n">
-        <v>290.0599259018412</v>
+        <v>289.8335511101076</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -35821,28 +36065,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.06230778459569817</v>
+        <v>-0.06099880510361839</v>
       </c>
       <c r="J6" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K6" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00032070750737756</v>
+        <v>0.00030993672492452</v>
       </c>
       <c r="M6" t="n">
-        <v>18.03622579911336</v>
+        <v>17.96707610885956</v>
       </c>
       <c r="N6" t="n">
-        <v>519.0617250188776</v>
+        <v>516.8987631253045</v>
       </c>
       <c r="O6" t="n">
-        <v>22.78292617331842</v>
+        <v>22.73540769648313</v>
       </c>
       <c r="P6" t="n">
-        <v>322.8155093113765</v>
+        <v>322.8003139402599</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -35898,28 +36142,28 @@
         <v>0.061</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1434182463767538</v>
+        <v>-0.1408186140810866</v>
       </c>
       <c r="J7" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K7" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003259766810060349</v>
+        <v>0.003166102572118357</v>
       </c>
       <c r="M7" t="n">
-        <v>12.93443225323508</v>
+        <v>12.89786692756328</v>
       </c>
       <c r="N7" t="n">
-        <v>282.5301813949597</v>
+        <v>281.4882676983811</v>
       </c>
       <c r="O7" t="n">
-        <v>16.80863413234281</v>
+        <v>16.77761209762525</v>
       </c>
       <c r="P7" t="n">
-        <v>339.8536211575233</v>
+        <v>339.8241822492827</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -35975,28 +36219,28 @@
         <v>0.0403</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03980733524414973</v>
+        <v>-0.03150140789238055</v>
       </c>
       <c r="J8" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K8" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002706736150158706</v>
+        <v>0.0001705244022084385</v>
       </c>
       <c r="M8" t="n">
-        <v>12.6377645321524</v>
+        <v>12.6251993985846</v>
       </c>
       <c r="N8" t="n">
-        <v>260.6309100869115</v>
+        <v>260.0312333419998</v>
       </c>
       <c r="O8" t="n">
-        <v>16.14406733406769</v>
+        <v>16.12548397233397</v>
       </c>
       <c r="P8" t="n">
-        <v>340.9890481237629</v>
+        <v>340.8942621784263</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -36052,28 +36296,28 @@
         <v>0.0515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1530725891416084</v>
+        <v>0.1636801770542216</v>
       </c>
       <c r="J9" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K9" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004160437101052628</v>
+        <v>0.004776992438857097</v>
       </c>
       <c r="M9" t="n">
-        <v>12.07996741423322</v>
+        <v>12.08036635707464</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7672644215065</v>
+        <v>248.4766678023269</v>
       </c>
       <c r="O9" t="n">
-        <v>15.77235760504771</v>
+        <v>15.76314270069033</v>
       </c>
       <c r="P9" t="n">
-        <v>334.5671180789881</v>
+        <v>334.4459831947025</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -36129,28 +36373,28 @@
         <v>0.0383</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02234489000672193</v>
+        <v>-0.009941401220403618</v>
       </c>
       <c r="J10" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K10" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L10" t="n">
-        <v>9.416291382069453e-05</v>
+        <v>1.870328753672545e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>12.08900908575086</v>
+        <v>12.09864298986636</v>
       </c>
       <c r="N10" t="n">
-        <v>232.6718642147875</v>
+        <v>232.7138315529242</v>
       </c>
       <c r="O10" t="n">
-        <v>15.25358529050752</v>
+        <v>15.25496088336264</v>
       </c>
       <c r="P10" t="n">
-        <v>334.4530429825819</v>
+        <v>334.3104231214511</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -36206,28 +36450,28 @@
         <v>0.0585</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.06959514332246583</v>
+        <v>-0.05647077661662996</v>
       </c>
       <c r="J11" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K11" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001001566116992758</v>
+        <v>0.0006614885274613957</v>
       </c>
       <c r="M11" t="n">
-        <v>10.84280906188374</v>
+        <v>10.85790900235717</v>
       </c>
       <c r="N11" t="n">
-        <v>202.9013167415429</v>
+        <v>203.111655606866</v>
       </c>
       <c r="O11" t="n">
-        <v>14.24434332433556</v>
+        <v>14.25172465376966</v>
       </c>
       <c r="P11" t="n">
-        <v>334.8585721080613</v>
+        <v>334.7049791278244</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -36283,28 +36527,28 @@
         <v>0.0399</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04741722001106193</v>
+        <v>-0.03147492422063843</v>
       </c>
       <c r="J12" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K12" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004809199832483957</v>
+        <v>0.0002118985215766589</v>
       </c>
       <c r="M12" t="n">
-        <v>11.18890622610654</v>
+        <v>11.22483886241137</v>
       </c>
       <c r="N12" t="n">
-        <v>198.2959939090649</v>
+        <v>199.0700587277422</v>
       </c>
       <c r="O12" t="n">
-        <v>14.08176103720926</v>
+        <v>14.10921892691945</v>
       </c>
       <c r="P12" t="n">
-        <v>332.5773040590742</v>
+        <v>332.3913872640346</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -36360,28 +36604,28 @@
         <v>0.0468</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01741486728639787</v>
+        <v>-0.004844155394984905</v>
       </c>
       <c r="J13" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K13" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L13" t="n">
-        <v>5.852121194327431e-05</v>
+        <v>4.540858729251696e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>11.49077826099417</v>
+        <v>11.5005529487245</v>
       </c>
       <c r="N13" t="n">
-        <v>221.0822391351188</v>
+        <v>221.2497448323825</v>
       </c>
       <c r="O13" t="n">
-        <v>14.86883449148315</v>
+        <v>14.87446620327541</v>
       </c>
       <c r="P13" t="n">
-        <v>332.046190649225</v>
+        <v>331.8999548443132</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -36437,28 +36681,28 @@
         <v>0.0565</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08939387409700383</v>
+        <v>-0.08103022395831602</v>
       </c>
       <c r="J14" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001509195925511908</v>
+        <v>0.00124633202389246</v>
       </c>
       <c r="M14" t="n">
-        <v>11.73050449660018</v>
+        <v>11.72538752806255</v>
       </c>
       <c r="N14" t="n">
-        <v>221.3831434014806</v>
+        <v>221.0543318157102</v>
       </c>
       <c r="O14" t="n">
-        <v>14.87894967400188</v>
+        <v>14.86789601173314</v>
       </c>
       <c r="P14" t="n">
-        <v>333.365631598615</v>
+        <v>333.2670156534534</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -36514,28 +36758,28 @@
         <v>0.063</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3165491714500777</v>
+        <v>-0.3064617936172881</v>
       </c>
       <c r="J15" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K15" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0160130085754504</v>
+        <v>0.01509032179702474</v>
       </c>
       <c r="M15" t="n">
-        <v>12.14618688692487</v>
+        <v>12.13829256336459</v>
       </c>
       <c r="N15" t="n">
-        <v>258.8062755977538</v>
+        <v>258.5220818973034</v>
       </c>
       <c r="O15" t="n">
-        <v>16.08745708922805</v>
+        <v>16.07862189048873</v>
       </c>
       <c r="P15" t="n">
-        <v>337.1270432717357</v>
+        <v>337.0083358872393</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -36591,28 +36835,28 @@
         <v>0.047</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5404576159129703</v>
+        <v>-0.5296852825904987</v>
       </c>
       <c r="J16" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K16" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04296651763807791</v>
+        <v>0.04149756012459238</v>
       </c>
       <c r="M16" t="n">
-        <v>12.42503038042287</v>
+        <v>12.43154605983229</v>
       </c>
       <c r="N16" t="n">
-        <v>270.0462434193298</v>
+        <v>269.8655894762438</v>
       </c>
       <c r="O16" t="n">
-        <v>16.43308380734821</v>
+        <v>16.42758623402245</v>
       </c>
       <c r="P16" t="n">
-        <v>339.0310651348079</v>
+        <v>338.9034624598052</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -36668,28 +36912,28 @@
         <v>0.0615</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4015215847796779</v>
+        <v>-0.4000210165322672</v>
       </c>
       <c r="J17" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K17" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03007583838867001</v>
+        <v>0.03004900218501971</v>
       </c>
       <c r="M17" t="n">
-        <v>11.43026680167879</v>
+        <v>11.3968175156641</v>
       </c>
       <c r="N17" t="n">
-        <v>219.3841692613192</v>
+        <v>218.6522862245358</v>
       </c>
       <c r="O17" t="n">
-        <v>14.81162277609443</v>
+        <v>14.78689576025123</v>
       </c>
       <c r="P17" t="n">
-        <v>336.6762658482891</v>
+        <v>336.6586123434435</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -36745,28 +36989,28 @@
         <v>0.0951</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4865808909414924</v>
+        <v>-0.4483950989475655</v>
       </c>
       <c r="J18" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K18" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03924000776101277</v>
+        <v>0.03306654841302481</v>
       </c>
       <c r="M18" t="n">
-        <v>12.08122869077781</v>
+        <v>12.169845554947</v>
       </c>
       <c r="N18" t="n">
-        <v>245.3667139998422</v>
+        <v>250.4339351371034</v>
       </c>
       <c r="O18" t="n">
-        <v>15.66418571135577</v>
+        <v>15.82510458534487</v>
       </c>
       <c r="P18" t="n">
-        <v>338.595249792068</v>
+        <v>338.1494250317034</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -36822,28 +37066,28 @@
         <v>0.0703</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6092297553560673</v>
+        <v>-0.5597347769344191</v>
       </c>
       <c r="J19" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K19" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05216034796506963</v>
+        <v>0.04425862854642604</v>
       </c>
       <c r="M19" t="n">
-        <v>12.55530311235629</v>
+        <v>12.66449556750538</v>
       </c>
       <c r="N19" t="n">
-        <v>281.93271805462</v>
+        <v>285.4884649056343</v>
       </c>
       <c r="O19" t="n">
-        <v>16.79085221347088</v>
+        <v>16.89640390454828</v>
       </c>
       <c r="P19" t="n">
-        <v>341.3836127083657</v>
+        <v>340.8035002711351</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -36899,28 +37143,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7766045712080952</v>
+        <v>-0.7389157984895196</v>
       </c>
       <c r="J20" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K20" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L20" t="n">
-        <v>0.089992834810807</v>
+        <v>0.08268963769338733</v>
       </c>
       <c r="M20" t="n">
-        <v>12.39571937821723</v>
+        <v>12.44650460343943</v>
       </c>
       <c r="N20" t="n">
-        <v>255.2158807448897</v>
+        <v>255.8267444037807</v>
       </c>
       <c r="O20" t="n">
-        <v>15.97547748096719</v>
+        <v>15.99458484624658</v>
       </c>
       <c r="P20" t="n">
-        <v>346.5356628108593</v>
+        <v>346.0927327893683</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -36976,28 +37220,28 @@
         <v>0.0978</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.524279272073761</v>
+        <v>-0.4974694424735986</v>
       </c>
       <c r="J21" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K21" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03651327414624916</v>
+        <v>0.0334550966709426</v>
       </c>
       <c r="M21" t="n">
-        <v>13.00296685205559</v>
+        <v>12.99736917676189</v>
       </c>
       <c r="N21" t="n">
-        <v>299.6141603557718</v>
+        <v>298.1821133545832</v>
       </c>
       <c r="O21" t="n">
-        <v>17.30936626095166</v>
+        <v>17.26795046768965</v>
       </c>
       <c r="P21" t="n">
-        <v>338.2515343028488</v>
+        <v>337.9350243351121</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -37053,28 +37297,28 @@
         <v>0.0649</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4985257139930786</v>
+        <v>-0.4562390039242657</v>
       </c>
       <c r="J22" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K22" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03124273766733943</v>
+        <v>0.02651970650699564</v>
       </c>
       <c r="M22" t="n">
-        <v>13.83352582004157</v>
+        <v>13.87028501269595</v>
       </c>
       <c r="N22" t="n">
-        <v>317.017405711556</v>
+        <v>317.4810129889528</v>
       </c>
       <c r="O22" t="n">
-        <v>17.80498260913377</v>
+        <v>17.81799688486202</v>
       </c>
       <c r="P22" t="n">
-        <v>333.2241887961362</v>
+        <v>332.7240147675024</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -37130,28 +37374,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.6227961567000687</v>
+        <v>-0.5953797345220971</v>
       </c>
       <c r="J23" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K23" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04536627115486747</v>
+        <v>0.041922413191957</v>
       </c>
       <c r="M23" t="n">
-        <v>14.00050442937444</v>
+        <v>14.01557316269951</v>
       </c>
       <c r="N23" t="n">
-        <v>324.5421824880365</v>
+        <v>324.4441479318131</v>
       </c>
       <c r="O23" t="n">
-        <v>18.01505432931127</v>
+        <v>18.01233321732121</v>
       </c>
       <c r="P23" t="n">
-        <v>334.4256537818829</v>
+        <v>334.096314885754</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -37207,28 +37451,28 @@
         <v>0.0699</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.5510001920431952</v>
+        <v>-0.5278179063858656</v>
       </c>
       <c r="J24" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K24" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03939234630036714</v>
+        <v>0.03658624202124761</v>
       </c>
       <c r="M24" t="n">
-        <v>13.75643232717192</v>
+        <v>13.74407062757134</v>
       </c>
       <c r="N24" t="n">
-        <v>306.4579952673883</v>
+        <v>305.8385773033212</v>
       </c>
       <c r="O24" t="n">
-        <v>17.50594171324092</v>
+        <v>17.48824111519856</v>
       </c>
       <c r="P24" t="n">
-        <v>336.7147962640341</v>
+        <v>336.4411486451795</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -37284,28 +37528,28 @@
         <v>0.0527</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6992037432241657</v>
+        <v>-0.6551361940604556</v>
       </c>
       <c r="J25" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K25" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05372118805118187</v>
+        <v>0.0478441477485928</v>
       </c>
       <c r="M25" t="n">
-        <v>14.53021962498379</v>
+        <v>14.55838859227809</v>
       </c>
       <c r="N25" t="n">
-        <v>358.9039428761942</v>
+        <v>359.7217396608188</v>
       </c>
       <c r="O25" t="n">
-        <v>18.9447603013655</v>
+        <v>18.96633173971232</v>
       </c>
       <c r="P25" t="n">
-        <v>351.07585935254</v>
+        <v>350.5586377245365</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -37361,28 +37605,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9238155852900052</v>
+        <v>-0.9019968689545944</v>
       </c>
       <c r="J26" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K26" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08852173729589519</v>
+        <v>0.08500409867176195</v>
       </c>
       <c r="M26" t="n">
-        <v>14.92508681480315</v>
+        <v>14.94650662723032</v>
       </c>
       <c r="N26" t="n">
-        <v>365.7961339027049</v>
+        <v>366.9863291058919</v>
       </c>
       <c r="O26" t="n">
-        <v>19.12579760173951</v>
+        <v>19.15688724991333</v>
       </c>
       <c r="P26" t="n">
-        <v>366.8609830683201</v>
+        <v>366.6019593574921</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -37438,28 +37682,28 @@
         <v>0.0755</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.951542842036979</v>
+        <v>-0.9545649598590826</v>
       </c>
       <c r="J27" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K27" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05534059275882341</v>
+        <v>0.05602492964506889</v>
       </c>
       <c r="M27" t="n">
-        <v>20.20379769077041</v>
+        <v>20.14108832923645</v>
       </c>
       <c r="N27" t="n">
-        <v>650.8012833214251</v>
+        <v>648.4206899283646</v>
       </c>
       <c r="O27" t="n">
-        <v>25.51080718678704</v>
+        <v>25.46410591260499</v>
       </c>
       <c r="P27" t="n">
-        <v>378.5823579297024</v>
+        <v>378.6181696952874</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -37496,7 +37740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB420"/>
+  <dimension ref="A1:AB423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81468,6 +81712,280 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>-45.87840633537311,170.68982247508927</t>
+        </is>
+      </c>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>-45.87847547322072,170.68890328694584</t>
+        </is>
+      </c>
+      <c r="U421" t="inlineStr">
+        <is>
+          <t>-45.87875147051418,170.68810222799704</t>
+        </is>
+      </c>
+      <c r="V421" t="inlineStr">
+        <is>
+          <t>-45.87910890341316,170.68736126299933</t>
+        </is>
+      </c>
+      <c r="W421" t="inlineStr"/>
+      <c r="X421" t="inlineStr"/>
+      <c r="Y421" t="inlineStr">
+        <is>
+          <t>-45.88014375258723,170.6850667640958</t>
+        </is>
+      </c>
+      <c r="Z421" t="inlineStr"/>
+      <c r="AA421" t="inlineStr"/>
+      <c r="AB421" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:49+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>-45.87822494945224,170.6906844824089</t>
+        </is>
+      </c>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>-45.87821229497236,170.6897155344022</t>
+        </is>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>-45.87851142290726,170.68892732371862</t>
+        </is>
+      </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>-45.87871589723518,170.6880734875722</t>
+        </is>
+      </c>
+      <c r="V422" t="inlineStr">
+        <is>
+          <t>-45.8790365773056,170.68730182490486</t>
+        </is>
+      </c>
+      <c r="W422" t="inlineStr">
+        <is>
+          <t>-45.87935265484155,170.6865283677445</t>
+        </is>
+      </c>
+      <c r="X422" t="inlineStr">
+        <is>
+          <t>-45.879655596988364,170.68574895950505</t>
+        </is>
+      </c>
+      <c r="Y422" t="inlineStr">
+        <is>
+          <t>-45.87995547820657,170.68495739110236</t>
+        </is>
+      </c>
+      <c r="Z422" t="inlineStr">
+        <is>
+          <t>-45.880184610704084,170.6841217043454</t>
+        </is>
+      </c>
+      <c r="AA422" t="inlineStr">
+        <is>
+          <t>-45.880526185145676,170.68335133641935</t>
+        </is>
+      </c>
+      <c r="AB422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-45.875042476443475,170.704283997024</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-45.87511353542616,170.7033916758084</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-45.875198536819795,170.7025016617713</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-45.875343845193484,170.7016216253332</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-45.87550996096139,170.70074502990565</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-45.875744193803136,170.6998799509033</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-45.87598420650079,170.69904629729993</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-45.876191571454164,170.698204632018</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>-45.87636974761609,170.6973436825676</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>-45.87656362612138,170.69648968851212</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>-45.87678155796808,170.69564634803305</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>-45.87694595380691,170.6947792968848</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>-45.87709324311035,170.69390467058184</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>-45.87729036234084,170.69305337517096</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>-45.8774991185669,170.69220832896596</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>-45.8776383061244,170.69132313577677</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>-45.877938969372785,170.69052686860704</t>
+        </is>
+      </c>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>-45.878239499257376,170.68973052734117</t>
+        </is>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>-45.87845444142913,170.68888922463026</t>
+        </is>
+      </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>-45.87874222459651,170.6880947580153</t>
+        </is>
+      </c>
+      <c r="V423" t="inlineStr">
+        <is>
+          <t>-45.87907723059696,170.68733523403873</t>
+        </is>
+      </c>
+      <c r="W423" t="inlineStr">
+        <is>
+          <t>-45.87938800107152,170.68655610279373</t>
+        </is>
+      </c>
+      <c r="X423" t="inlineStr">
+        <is>
+          <t>-45.879702055156166,170.68577974516606</t>
+        </is>
+      </c>
+      <c r="Y423" t="inlineStr">
+        <is>
+          <t>-45.88004635013369,170.68501018063458</t>
+        </is>
+      </c>
+      <c r="Z423" t="inlineStr">
+        <is>
+          <t>-45.880489907748725,170.68429905595087</t>
+        </is>
+      </c>
+      <c r="AA423" t="inlineStr"/>
+      <c r="AB423" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0508/nzd0508.xlsx
+++ b/data/nzd0508/nzd0508.xlsx
@@ -35626,7 +35626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35717,35 +35717,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -35798,27 +35803,28 @@
       <c r="P2" t="n">
         <v>253.6164704552999</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.70382857127296 -45.872290194817275, 170.70512715235893 -45.88013728994472)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.703828571273</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.87229019481727</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.7051271523589</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.88013728994472</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.7044778618159</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.876213742381</v>
       </c>
     </row>
@@ -35869,27 +35875,28 @@
       <c r="P3" t="n">
         <v>281.8105434564144</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.70293840928696 -45.87237412227403, 170.70423690525968 -45.88022121834777)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.702938409287</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.87237412227403</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.7042369052597</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.88022121834777</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.7035876572733</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.8762976703109</v>
       </c>
     </row>
@@ -35946,27 +35953,28 @@
       <c r="P4" t="n">
         <v>282.8245198413854</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.7020482473013 -45.87245804960449, 170.70334665815977 -45.88030514662324)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.7020482473013</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.87245804960449</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.7033466581598</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.88030514662324</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.7026974527305</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.87638159811387</v>
       </c>
     </row>
@@ -36017,27 +36025,28 @@
       <c r="P5" t="n">
         <v>289.8335511101076</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.7011580853159 -45.8725419768086, 170.7024564110593 -45.88038907477109)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.7011580853159</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.8725419768086</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.7024564110593</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.88038907477109</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.7018072481876</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.87646552578984</v>
       </c>
     </row>
@@ -36088,27 +36097,28 @@
       <c r="P6" t="n">
         <v>322.8003139402599</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.70026792333067 -45.87262590388641, 170.7015661639585 -45.88047300279134)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.7002679233307</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.87262590388641</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.7015661639585</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.88047300279134</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.7009170436446</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.87654945333887</v>
       </c>
     </row>
@@ -36165,27 +36175,28 @@
       <c r="P7" t="n">
         <v>339.8241822492827</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.69916087484816 -45.87273156116666, 170.70102084203617 -45.88052343309945)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.6991608748482</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.87273156116666</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.7010208420362</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.88052343309945</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.7000908584422</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.87662749713306</v>
       </c>
     </row>
@@ -36242,27 +36253,28 @@
       <c r="P8" t="n">
         <v>340.8942621784263</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.69789543265009 -45.8729365741619, 170.7007801487534 -45.88057504061249)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.6978954326501</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.8729365741619</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.7007801487534</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.88057504061249</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.6993377907017</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.8767558073872</v>
       </c>
     </row>
@@ -36319,27 +36331,28 @@
       <c r="P9" t="n">
         <v>334.4459831947025</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.69686575451405 -45.87316863213403, 170.70020863101914 -45.88071561732197)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.6968657545141</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.87316863213403</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.7002086310191</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.88071561732197</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.6985371927666</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.876942124728</v>
       </c>
     </row>
@@ -36396,27 +36409,28 @@
       <c r="P10" t="n">
         <v>334.3104231214511</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.69601290826705 -45.8733650348436, 170.69935571204098 -45.88091202665837)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.6960129082671</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.8733650348436</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.699355712041</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.88091202665837</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.697684310154</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.87713853075098</v>
       </c>
     </row>
@@ -36473,27 +36487,28 @@
       <c r="P11" t="n">
         <v>334.7049791278244</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.69516006202056 -45.873561436859355, 170.6985027930618 -45.88110843529992)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.6951600620206</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.87356143685935</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.6985027930618</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.88110843529992</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.6968314275412</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.87733493607963</v>
       </c>
     </row>
@@ -36550,27 +36565,28 @@
       <c r="P12" t="n">
         <v>332.3913872640346</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.69430721577447 -45.87375783818134, 170.69764987408175 -45.88130484324661)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.6943072157745</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.87375783818134</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.6976498740817</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.88130484324661</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.6959785449281</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.87753134071397</v>
       </c>
     </row>
@@ -36627,27 +36643,28 @@
       <c r="P13" t="n">
         <v>331.8999548443132</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (170.69345436952904 -45.87395423880951, 170.69679695510058 -45.881501250498495)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>170.693454369529</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-45.87395423880951</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>170.6967969551006</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-45.88150125049849</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>170.6951256623148</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-45.877727744654</v>
       </c>
     </row>
@@ -36704,27 +36721,28 @@
       <c r="P14" t="n">
         <v>333.2670156534534</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (170.69260152328417 -45.87415063874377, 170.69594403611828 -45.88169765705553)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>170.6926015232842</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-45.87415063874377</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>170.6959440361183</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-45.88169765705553</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>170.6942727797012</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-45.87792414789965</v>
       </c>
     </row>
@@ -36781,27 +36799,28 @@
       <c r="P15" t="n">
         <v>337.0083358872393</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (170.69163229674686 -45.8743736156744, 170.69527635060186 -45.88185236972252)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>170.6916322967469</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-45.8743736156744</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>170.6952763506019</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-45.88185236972252</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>170.6934543236744</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-45.87811299269846</v>
       </c>
     </row>
@@ -36858,27 +36877,28 @@
       <c r="P16" t="n">
         <v>338.9034624598052</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (170.69065821696353 -45.874637881760144, 170.69466152461604 -45.882026668926905)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>170.6906582169635</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-45.87463788176014</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>170.694661524616</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-45.8820266689269</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>170.6926598707898</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-45.87833227534352</v>
       </c>
     </row>
@@ -36935,27 +36955,28 @@
       <c r="P17" t="n">
         <v>336.6586123434435</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (170.6898030439292 -45.87488008213261, 170.69386660724575 -45.88225283011713)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>170.6898030439292</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-45.87488008213261</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>170.6938666072458</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-45.88225283011713</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>170.6918348255875</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-45.87856645612487</v>
       </c>
     </row>
@@ -37012,27 +37033,28 @@
       <c r="P18" t="n">
         <v>338.1494250317034</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (170.68897114288933 -45.875116041868864, 170.69303464055565 -45.882488798332766)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>170.6889711428893</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-45.87511604186886</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>170.6930346405557</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-45.88248879833277</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>170.6910028917225</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-45.87880242010081</v>
       </c>
     </row>
@@ -37089,27 +37111,28 @@
       <c r="P19" t="n">
         <v>340.8035002711351</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (170.68813924185005 -45.87535200060339, 170.6922026738644 -45.88272476554576)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>170.6881392418501</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-45.87535200060339</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>170.6922026738644</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-45.88272476554576</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>170.6901709578572</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-45.87903838307457</v>
       </c>
     </row>
@@ -37166,27 +37189,28 @@
       <c r="P20" t="n">
         <v>346.0927327893683</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (170.6870284212378 -45.875671247394784, 170.69181483608324 -45.88282965722978)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>170.6870284212378</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-45.87567124739478</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>170.6918148360832</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-45.88282965722978</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>170.6894216286605</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-45.87925045231228</v>
       </c>
     </row>
@@ -37243,27 +37267,28 @@
       <c r="P21" t="n">
         <v>337.9350243351121</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (170.68595405460277 -45.87609244075224, 170.6915135898883 -45.88297349681467)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>170.6859540546028</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-45.87609244075224</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>170.6915135898883</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-45.88297349681467</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>170.6887338222455</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-45.87953296878345</v>
       </c>
     </row>
@@ -37320,27 +37345,28 @@
       <c r="P22" t="n">
         <v>332.7240147675024</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (170.6851559700846 -45.87642529183239, 170.6907875553913 -45.88327776057902)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>170.6851559700846</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-45.87642529183239</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>170.6907875553913</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-45.88327776057902</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>170.687971762738</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-45.87985152620571</v>
       </c>
     </row>
@@ -37397,27 +37423,28 @@
       <c r="P23" t="n">
         <v>334.096314885754</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (170.6844607688192 -45.87671751406571, 170.68989760084395 -45.88364612009949)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>170.6844607688192</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-45.87671751406571</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>170.6898976008439</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-45.88364612009949</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>170.6871791848316</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-45.8801818170826</v>
       </c>
     </row>
@@ -37474,27 +37501,28 @@
       <c r="P24" t="n">
         <v>336.4411486451795</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (170.68393874360885 -45.87692368142672, 170.68868997133976 -45.884093456297705)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>170.6839387436088</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-45.87692368142672</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>170.6886899713398</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-45.88409345629771</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>170.6863143574743</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-45.88050856886221</v>
       </c>
     </row>
@@ -37551,27 +37579,28 @@
       <c r="P25" t="n">
         <v>350.5586377245365</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (170.68330533015936 -45.877111462701464, 170.68755811463743 -45.88443199571099)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>170.6833053301594</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-45.87711146270146</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>170.6875581146374</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-45.88443199571099</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>170.6854317223984</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-45.88077172920623</v>
       </c>
     </row>
@@ -37628,27 +37657,28 @@
       <c r="P26" t="n">
         <v>366.6019593574921</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (170.6824796693162 -45.877357808148446, 170.686732390232 -45.88467835010033)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>170.6824796693162</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-45.87735780814845</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>170.686732390232</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-45.88467835010033</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>170.6846060297741</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-45.88101807912439</v>
       </c>
     </row>
@@ -37705,27 +37735,28 @@
       <c r="P27" t="n">
         <v>378.6181696952874</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (170.6816540084737 -45.877604152503466, 170.6859066658254 -45.8849247033969)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>170.6816540084737</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-45.87760415250347</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>170.6859066658254</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-45.8849247033969</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>170.6837803371496</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-45.88126442795019</v>
       </c>
     </row>

--- a/data/nzd0508/nzd0508.xlsx
+++ b/data/nzd0508/nzd0508.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB423"/>
+  <dimension ref="A1:AB426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30637,10 +30637,280 @@
       <c r="Z423" t="n">
         <v>375.69</v>
       </c>
-      <c r="AA423" t="inlineStr"/>
+      <c r="AA423" t="n">
+        <v>391.0318181818182</v>
+      </c>
       <c r="AB423" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>327.8633333333333</v>
+      </c>
+      <c r="C424" t="n">
+        <v>336.4533333333334</v>
+      </c>
+      <c r="D424" t="n">
+        <v>346.1633333333334</v>
+      </c>
+      <c r="E424" t="n">
+        <v>342.8342857142857</v>
+      </c>
+      <c r="F424" t="n">
+        <v>340.85</v>
+      </c>
+      <c r="G424" t="n">
+        <v>350.52</v>
+      </c>
+      <c r="H424" t="n">
+        <v>346.3342857142857</v>
+      </c>
+      <c r="I424" t="n">
+        <v>347.1211111111111</v>
+      </c>
+      <c r="J424" t="n">
+        <v>345.5842857142857</v>
+      </c>
+      <c r="K424" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="L424" t="n">
+        <v>346.0542857142857</v>
+      </c>
+      <c r="M424" t="n">
+        <v>348.47</v>
+      </c>
+      <c r="N424" t="n">
+        <v>349.9011111111111</v>
+      </c>
+      <c r="O424" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="P424" t="n">
+        <v>345.92</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>344.7</v>
+      </c>
+      <c r="R424" t="n">
+        <v>346.2971428571428</v>
+      </c>
+      <c r="S424" t="n">
+        <v>344.2133333333333</v>
+      </c>
+      <c r="T424" t="n">
+        <v>339.7433333333333</v>
+      </c>
+      <c r="U424" t="n">
+        <v>346.0266666666666</v>
+      </c>
+      <c r="V424" t="n">
+        <v>346.16</v>
+      </c>
+      <c r="W424" t="n">
+        <v>343.77</v>
+      </c>
+      <c r="X424" t="n">
+        <v>350.8</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>365.3211111111111</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>389.44</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>400.86</v>
+      </c>
+      <c r="AB424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>327.39</v>
+      </c>
+      <c r="C425" t="n">
+        <v>332.96</v>
+      </c>
+      <c r="D425" t="n">
+        <v>349.18</v>
+      </c>
+      <c r="E425" t="n">
+        <v>347.5914285714285</v>
+      </c>
+      <c r="F425" t="n">
+        <v>351.04</v>
+      </c>
+      <c r="G425" t="n">
+        <v>358.82</v>
+      </c>
+      <c r="H425" t="n">
+        <v>357.4514285714285</v>
+      </c>
+      <c r="I425" t="n">
+        <v>359.0666666666667</v>
+      </c>
+      <c r="J425" t="n">
+        <v>361.4014285714285</v>
+      </c>
+      <c r="K425" t="n">
+        <v>352.29</v>
+      </c>
+      <c r="L425" t="n">
+        <v>358.2214285714285</v>
+      </c>
+      <c r="M425" t="n">
+        <v>359.15</v>
+      </c>
+      <c r="N425" t="n">
+        <v>359.6066666666667</v>
+      </c>
+      <c r="O425" t="n">
+        <v>357.66</v>
+      </c>
+      <c r="P425" t="n">
+        <v>359.74</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>355.3145454545455</v>
+      </c>
+      <c r="R425" t="n">
+        <v>352.8657142857143</v>
+      </c>
+      <c r="S425" t="n">
+        <v>349.46</v>
+      </c>
+      <c r="T425" t="n">
+        <v>347.04</v>
+      </c>
+      <c r="U425" t="n">
+        <v>352.16</v>
+      </c>
+      <c r="V425" t="n">
+        <v>354.9545454545454</v>
+      </c>
+      <c r="W425" t="n">
+        <v>353.2445454545455</v>
+      </c>
+      <c r="X425" t="n">
+        <v>365.3245454545454</v>
+      </c>
+      <c r="Y425" t="n">
+        <v>377.9966666666666</v>
+      </c>
+      <c r="Z425" t="n">
+        <v>398.75</v>
+      </c>
+      <c r="AA425" t="n">
+        <v>412.3145454545455</v>
+      </c>
+      <c r="AB425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="n">
+        <v>306.9333333333333</v>
+      </c>
+      <c r="D426" t="n">
+        <v>332.2533333333333</v>
+      </c>
+      <c r="E426" t="n">
+        <v>362.9728571428572</v>
+      </c>
+      <c r="F426" t="n">
+        <v>359.8099999999999</v>
+      </c>
+      <c r="G426" t="n">
+        <v>360.48</v>
+      </c>
+      <c r="H426" t="n">
+        <v>359.3928571428572</v>
+      </c>
+      <c r="I426" t="n">
+        <v>346.5511111111111</v>
+      </c>
+      <c r="J426" t="n">
+        <v>344.6528571428572</v>
+      </c>
+      <c r="K426" t="n">
+        <v>336.53</v>
+      </c>
+      <c r="L426" t="n">
+        <v>340.0628571428572</v>
+      </c>
+      <c r="M426" t="n">
+        <v>346.77</v>
+      </c>
+      <c r="N426" t="n">
+        <v>348.9711111111111</v>
+      </c>
+      <c r="O426" t="n">
+        <v>353.95</v>
+      </c>
+      <c r="P426" t="n">
+        <v>345.76</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>348.9136363636364</v>
+      </c>
+      <c r="R426" t="n">
+        <v>348.4314285714286</v>
+      </c>
+      <c r="S426" t="n">
+        <v>345.6833333333333</v>
+      </c>
+      <c r="T426" t="n">
+        <v>344.6233333333333</v>
+      </c>
+      <c r="U426" t="n">
+        <v>342.6666666666667</v>
+      </c>
+      <c r="V426" t="n">
+        <v>340.0236363636364</v>
+      </c>
+      <c r="W426" t="n">
+        <v>341.3036363636364</v>
+      </c>
+      <c r="X426" t="n">
+        <v>350.7436363636364</v>
+      </c>
+      <c r="Y426" t="n">
+        <v>367.4311111111111</v>
+      </c>
+      <c r="Z426" t="n">
+        <v>394.18</v>
+      </c>
+      <c r="AA426" t="n">
+        <v>421.4536363636364</v>
+      </c>
+      <c r="AB426" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -30655,7 +30925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35613,6 +35883,46 @@
       </c>
       <c r="B495" t="n">
         <v>-0.98</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -35780,28 +36090,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.5509929848939161</v>
+        <v>0.690585839539038</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K2" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00754041649338455</v>
+        <v>0.01179611816256698</v>
       </c>
       <c r="M2" t="n">
-        <v>37.78536991032824</v>
+        <v>38.0705976310086</v>
       </c>
       <c r="N2" t="n">
-        <v>1679.077310495317</v>
+        <v>1698.178160071174</v>
       </c>
       <c r="O2" t="n">
-        <v>40.97654585851907</v>
+        <v>41.20895727959122</v>
       </c>
       <c r="P2" t="n">
-        <v>253.6164704552999</v>
+        <v>251.9838382016018</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35852,28 +36162,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.1540385286453433</v>
+        <v>0.2701400564921568</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K3" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007988969253835965</v>
+        <v>0.002477220763073662</v>
       </c>
       <c r="M3" t="n">
-        <v>29.83435469131186</v>
+        <v>29.86363846879155</v>
       </c>
       <c r="N3" t="n">
-        <v>1317.776417504149</v>
+        <v>1322.961722671661</v>
       </c>
       <c r="O3" t="n">
-        <v>36.30119030423312</v>
+        <v>36.37254077833525</v>
       </c>
       <c r="P3" t="n">
-        <v>281.8105434564144</v>
+        <v>280.4827910597461</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35930,28 +36240,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2538841091675572</v>
+        <v>0.3955638979128794</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K4" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003807752144099119</v>
+        <v>0.008991354681007646</v>
       </c>
       <c r="M4" t="n">
-        <v>22.90984587726577</v>
+        <v>23.33552747502363</v>
       </c>
       <c r="N4" t="n">
-        <v>718.4143480788528</v>
+        <v>744.0903970680035</v>
       </c>
       <c r="O4" t="n">
-        <v>26.80325256529238</v>
+        <v>27.27802040229466</v>
       </c>
       <c r="P4" t="n">
-        <v>282.8245198413854</v>
+        <v>281.1695852609463</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36002,28 +36312,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.122531228546933</v>
+        <v>0.2833698896502737</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K5" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005459679334661738</v>
+        <v>0.002884626097109932</v>
       </c>
       <c r="M5" t="n">
-        <v>31.04853269639037</v>
+        <v>31.46771517893025</v>
       </c>
       <c r="N5" t="n">
-        <v>1206.535226630593</v>
+        <v>1234.533706413074</v>
       </c>
       <c r="O5" t="n">
-        <v>34.7352159433419</v>
+        <v>35.13593184210537</v>
       </c>
       <c r="P5" t="n">
-        <v>289.8335511101076</v>
+        <v>287.9829065007806</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36074,28 +36384,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.06099880510361839</v>
+        <v>0.01567663271392767</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00030993672492452</v>
+        <v>2.054346111224348e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>17.96707610885956</v>
+        <v>18.11612160577564</v>
       </c>
       <c r="N6" t="n">
-        <v>516.8987631253045</v>
+        <v>521.5090642130078</v>
       </c>
       <c r="O6" t="n">
-        <v>22.73540769648313</v>
+        <v>22.83657295245957</v>
       </c>
       <c r="P6" t="n">
-        <v>322.8003139402599</v>
+        <v>321.9063684805774</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36152,28 +36462,28 @@
         <v>0.061</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1408186140810866</v>
+        <v>-0.09335610254947486</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K7" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003166102572118357</v>
+        <v>0.001401218243616831</v>
       </c>
       <c r="M7" t="n">
-        <v>12.89786692756328</v>
+        <v>12.98689640797513</v>
       </c>
       <c r="N7" t="n">
-        <v>281.4882676983811</v>
+        <v>283.0717123044963</v>
       </c>
       <c r="O7" t="n">
-        <v>16.77761209762525</v>
+        <v>16.82473513326425</v>
       </c>
       <c r="P7" t="n">
-        <v>339.8241822492827</v>
+        <v>339.2843307004488</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36230,28 +36540,28 @@
         <v>0.0403</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03150140789238055</v>
+        <v>0.002159643360856688</v>
       </c>
       <c r="J8" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001705244022084385</v>
+        <v>8.112443478092146e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>12.6251993985846</v>
+        <v>12.62616681607648</v>
       </c>
       <c r="N8" t="n">
-        <v>260.0312333419998</v>
+        <v>259.6966746942274</v>
       </c>
       <c r="O8" t="n">
-        <v>16.12548397233397</v>
+        <v>16.11510703328487</v>
       </c>
       <c r="P8" t="n">
-        <v>340.8942621784263</v>
+        <v>340.5083533746101</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36308,28 +36618,28 @@
         <v>0.0515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1636801770542216</v>
+        <v>0.1924993643927618</v>
       </c>
       <c r="J9" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K9" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004776992438857097</v>
+        <v>0.006687291155400676</v>
       </c>
       <c r="M9" t="n">
-        <v>12.08036635707464</v>
+        <v>12.06923047780298</v>
       </c>
       <c r="N9" t="n">
-        <v>248.4766678023269</v>
+        <v>247.6850677852565</v>
       </c>
       <c r="O9" t="n">
-        <v>15.76314270069033</v>
+        <v>15.73801346375255</v>
       </c>
       <c r="P9" t="n">
-        <v>334.4459831947025</v>
+        <v>334.1155529456821</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36386,28 +36696,28 @@
         <v>0.0383</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.009941401220403618</v>
+        <v>0.02823660151949326</v>
       </c>
       <c r="J10" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K10" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L10" t="n">
-        <v>1.870328753672545e-05</v>
+        <v>0.0001518120747437957</v>
       </c>
       <c r="M10" t="n">
-        <v>12.09864298986636</v>
+        <v>12.1322852965283</v>
       </c>
       <c r="N10" t="n">
-        <v>232.7138315529242</v>
+        <v>233.7149531908451</v>
       </c>
       <c r="O10" t="n">
-        <v>15.25496088336264</v>
+        <v>15.28773865523757</v>
       </c>
       <c r="P10" t="n">
-        <v>334.3104231214511</v>
+        <v>333.8696816742049</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36464,28 +36774,28 @@
         <v>0.0585</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.05647077661662996</v>
+        <v>-0.02642317882982525</v>
       </c>
       <c r="J11" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K11" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006614885274613957</v>
+        <v>0.0001465597379439743</v>
       </c>
       <c r="M11" t="n">
-        <v>10.85790900235717</v>
+        <v>10.86703167253717</v>
       </c>
       <c r="N11" t="n">
-        <v>203.111655606866</v>
+        <v>203.0935995015395</v>
       </c>
       <c r="O11" t="n">
-        <v>14.25172465376966</v>
+        <v>14.25109116880316</v>
       </c>
       <c r="P11" t="n">
-        <v>334.7049791278244</v>
+        <v>334.3521489355957</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36542,28 +36852,28 @@
         <v>0.0399</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03147492422063843</v>
+        <v>0.006345274185119171</v>
       </c>
       <c r="J12" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K12" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002118985215766589</v>
+        <v>8.649799778104317e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>11.22483886241137</v>
+        <v>11.28533684334633</v>
       </c>
       <c r="N12" t="n">
-        <v>199.0700587277422</v>
+        <v>200.3821404941863</v>
       </c>
       <c r="O12" t="n">
-        <v>14.10921892691945</v>
+        <v>14.15563988289425</v>
       </c>
       <c r="P12" t="n">
-        <v>332.3913872640346</v>
+        <v>331.9487041921543</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36620,28 +36930,28 @@
         <v>0.0468</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.004844155394984905</v>
+        <v>0.03926472510957694</v>
       </c>
       <c r="J13" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K13" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L13" t="n">
-        <v>4.540858729251696e-06</v>
+        <v>0.0002987782209787904</v>
       </c>
       <c r="M13" t="n">
-        <v>11.5005529487245</v>
+        <v>11.55698420428824</v>
       </c>
       <c r="N13" t="n">
-        <v>221.2497448323825</v>
+        <v>223.1896186603746</v>
       </c>
       <c r="O13" t="n">
-        <v>14.87446620327541</v>
+        <v>14.93953207635281</v>
       </c>
       <c r="P13" t="n">
-        <v>331.8999548443132</v>
+        <v>331.3848413453821</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36698,28 +37008,28 @@
         <v>0.0565</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08103022395831602</v>
+        <v>-0.03383885862691153</v>
       </c>
       <c r="J14" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00124633202389246</v>
+        <v>0.0002171882174137885</v>
       </c>
       <c r="M14" t="n">
-        <v>11.72538752806255</v>
+        <v>11.80246670202646</v>
       </c>
       <c r="N14" t="n">
-        <v>221.0543318157102</v>
+        <v>223.6666492609502</v>
       </c>
       <c r="O14" t="n">
-        <v>14.86789601173314</v>
+        <v>14.95548893419905</v>
       </c>
       <c r="P14" t="n">
-        <v>333.2670156534534</v>
+        <v>332.7084048350571</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36776,28 +37086,28 @@
         <v>0.063</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3064617936172881</v>
+        <v>-0.2533002038398286</v>
       </c>
       <c r="J15" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K15" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01509032179702474</v>
+        <v>0.01033238801578629</v>
       </c>
       <c r="M15" t="n">
-        <v>12.13829256336459</v>
+        <v>12.19852856686862</v>
       </c>
       <c r="N15" t="n">
-        <v>258.5220818973034</v>
+        <v>261.8102776065453</v>
       </c>
       <c r="O15" t="n">
-        <v>16.07862189048873</v>
+        <v>16.18055245059776</v>
       </c>
       <c r="P15" t="n">
-        <v>337.0083358872393</v>
+        <v>336.3801804134465</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36854,28 +37164,28 @@
         <v>0.047</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5296852825904987</v>
+        <v>-0.4758181277667128</v>
       </c>
       <c r="J16" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K16" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04149756012459238</v>
+        <v>0.03361469091088631</v>
       </c>
       <c r="M16" t="n">
-        <v>12.43154605983229</v>
+        <v>12.54925139585315</v>
       </c>
       <c r="N16" t="n">
-        <v>269.8655894762438</v>
+        <v>273.7096314625034</v>
       </c>
       <c r="O16" t="n">
-        <v>16.42758623402245</v>
+        <v>16.54417212986202</v>
       </c>
       <c r="P16" t="n">
-        <v>338.9034624598052</v>
+        <v>338.2629017057709</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36932,28 +37242,28 @@
         <v>0.0615</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4000210165322672</v>
+        <v>-0.35031901416496</v>
       </c>
       <c r="J17" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K17" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03004900218501971</v>
+        <v>0.02309032151883716</v>
       </c>
       <c r="M17" t="n">
-        <v>11.3968175156641</v>
+        <v>11.46423907860041</v>
       </c>
       <c r="N17" t="n">
-        <v>218.6522862245358</v>
+        <v>221.9216834202118</v>
       </c>
       <c r="O17" t="n">
-        <v>14.78689576025123</v>
+        <v>14.89703606158661</v>
       </c>
       <c r="P17" t="n">
-        <v>336.6586123434435</v>
+        <v>336.0715032187207</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -37010,28 +37320,28 @@
         <v>0.0951</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4483950989475655</v>
+        <v>-0.4011862770398037</v>
       </c>
       <c r="J18" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K18" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03306654841302481</v>
+        <v>0.02663805724219193</v>
       </c>
       <c r="M18" t="n">
-        <v>12.169845554947</v>
+        <v>12.26286102541431</v>
       </c>
       <c r="N18" t="n">
-        <v>250.4339351371034</v>
+        <v>252.9052665201787</v>
       </c>
       <c r="O18" t="n">
-        <v>15.82510458534487</v>
+        <v>15.90299552034706</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1494250317034</v>
+        <v>337.5942086553127</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -37088,28 +37398,28 @@
         <v>0.0703</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5597347769344191</v>
+        <v>-0.5181192514824684</v>
       </c>
       <c r="J19" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K19" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04425862854642604</v>
+        <v>0.03837857775342246</v>
       </c>
       <c r="M19" t="n">
-        <v>12.66449556750538</v>
+        <v>12.73405329460815</v>
       </c>
       <c r="N19" t="n">
-        <v>285.4884649056343</v>
+        <v>286.5321124173416</v>
       </c>
       <c r="O19" t="n">
-        <v>16.89640390454828</v>
+        <v>16.92725944792427</v>
       </c>
       <c r="P19" t="n">
-        <v>340.8035002711351</v>
+        <v>340.3118218876326</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -37166,28 +37476,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7389157984895196</v>
+        <v>-0.7041001709118254</v>
       </c>
       <c r="J20" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K20" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08268963769338733</v>
+        <v>0.07625179604480314</v>
       </c>
       <c r="M20" t="n">
-        <v>12.44650460343943</v>
+        <v>12.48682063232337</v>
       </c>
       <c r="N20" t="n">
-        <v>255.8267444037807</v>
+        <v>256.0406689840926</v>
       </c>
       <c r="O20" t="n">
-        <v>15.99458484624658</v>
+        <v>16.00127085528186</v>
       </c>
       <c r="P20" t="n">
-        <v>346.0927327893683</v>
+        <v>345.6804075963631</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -37244,28 +37554,28 @@
         <v>0.0978</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4974694424735986</v>
+        <v>-0.4514281624430063</v>
       </c>
       <c r="J21" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K21" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0334550966709426</v>
+        <v>0.02781482798261592</v>
       </c>
       <c r="M21" t="n">
-        <v>12.99736917676189</v>
+        <v>13.0856650494857</v>
       </c>
       <c r="N21" t="n">
-        <v>298.1821133545832</v>
+        <v>299.9224766605839</v>
       </c>
       <c r="O21" t="n">
-        <v>17.26795046768965</v>
+        <v>17.31827002505111</v>
       </c>
       <c r="P21" t="n">
-        <v>337.9350243351121</v>
+        <v>337.3875827867394</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -37322,28 +37632,28 @@
         <v>0.0649</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4562390039242657</v>
+        <v>-0.3988590402903116</v>
       </c>
       <c r="J22" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K22" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02651970650699564</v>
+        <v>0.02035469183261884</v>
       </c>
       <c r="M22" t="n">
-        <v>13.87028501269595</v>
+        <v>13.97237920167747</v>
       </c>
       <c r="N22" t="n">
-        <v>317.4810129889528</v>
+        <v>321.337780540673</v>
       </c>
       <c r="O22" t="n">
-        <v>17.81799688486202</v>
+        <v>17.92589692430125</v>
       </c>
       <c r="P22" t="n">
-        <v>332.7240147675024</v>
+        <v>332.0404332680517</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -37400,28 +37710,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5953797345220971</v>
+        <v>-0.5329935557926733</v>
       </c>
       <c r="J23" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K23" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L23" t="n">
-        <v>0.041922413191957</v>
+        <v>0.0337983508631764</v>
       </c>
       <c r="M23" t="n">
-        <v>14.01557316269951</v>
+        <v>14.12719084163864</v>
       </c>
       <c r="N23" t="n">
-        <v>324.4441479318131</v>
+        <v>328.7722921819111</v>
       </c>
       <c r="O23" t="n">
-        <v>18.01233321732121</v>
+        <v>18.13207909154135</v>
       </c>
       <c r="P23" t="n">
-        <v>334.096314885754</v>
+        <v>333.3429265525167</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -37478,28 +37788,28 @@
         <v>0.0699</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.5278179063858656</v>
+        <v>-0.4521209567207616</v>
       </c>
       <c r="J24" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K24" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03658624202124761</v>
+        <v>0.02668378992024067</v>
       </c>
       <c r="M24" t="n">
-        <v>13.74407062757134</v>
+        <v>13.88025180285078</v>
       </c>
       <c r="N24" t="n">
-        <v>305.8385773033212</v>
+        <v>314.1794616491281</v>
       </c>
       <c r="O24" t="n">
-        <v>17.48824111519856</v>
+        <v>17.72510822672539</v>
       </c>
       <c r="P24" t="n">
-        <v>336.4411486451795</v>
+        <v>335.5427333586044</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -37556,28 +37866,28 @@
         <v>0.0527</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6551361940604556</v>
+        <v>-0.5716171750533695</v>
       </c>
       <c r="J25" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K25" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0478441477485928</v>
+        <v>0.03621656224597369</v>
       </c>
       <c r="M25" t="n">
-        <v>14.55838859227809</v>
+        <v>14.74625493585838</v>
       </c>
       <c r="N25" t="n">
-        <v>359.7217396608188</v>
+        <v>370.0234345819383</v>
       </c>
       <c r="O25" t="n">
-        <v>18.96633173971232</v>
+        <v>19.23599320497744</v>
       </c>
       <c r="P25" t="n">
-        <v>350.5586377245365</v>
+        <v>349.5708280663006</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -37634,28 +37944,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9019968689545944</v>
+        <v>-0.7866181058425518</v>
       </c>
       <c r="J26" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K26" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08500409867176195</v>
+        <v>0.06293320511977407</v>
       </c>
       <c r="M26" t="n">
-        <v>14.94650662723032</v>
+        <v>15.32841193534617</v>
       </c>
       <c r="N26" t="n">
-        <v>366.9863291058919</v>
+        <v>389.9525024882794</v>
       </c>
       <c r="O26" t="n">
-        <v>19.15688724991333</v>
+        <v>19.74721505651568</v>
       </c>
       <c r="P26" t="n">
-        <v>366.6019593574921</v>
+        <v>365.2274621480946</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -37712,28 +38022,28 @@
         <v>0.0755</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.9545649598590826</v>
+        <v>-0.7970628608359602</v>
       </c>
       <c r="J27" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K27" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05602492964506889</v>
+        <v>0.03844253197025604</v>
       </c>
       <c r="M27" t="n">
-        <v>20.14108832923645</v>
+        <v>20.70571127103971</v>
       </c>
       <c r="N27" t="n">
-        <v>648.4206899283646</v>
+        <v>679.379387054296</v>
       </c>
       <c r="O27" t="n">
-        <v>25.46410591260499</v>
+        <v>26.0649071944309</v>
       </c>
       <c r="P27" t="n">
-        <v>378.6181696952874</v>
+        <v>376.7370878911293</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -37771,7 +38081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB423"/>
+  <dimension ref="A1:AB426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82010,10 +82320,436 @@
           <t>-45.880489907748725,170.68429905595087</t>
         </is>
       </c>
-      <c r="AA423" t="inlineStr"/>
+      <c r="AA423" t="inlineStr">
+        <is>
+          <t>-45.88086416358726,170.6835476707852</t>
+        </is>
+      </c>
       <c r="AB423" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-45.87522048211279,170.70431345337386</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-45.87538118460256,170.7034359634887</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-45.875551897087874,170.70256012823535</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-45.875606072563464,170.7016650102562</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-45.87567226674544,170.70077188129318</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-45.875842257151454,170.69990335856508</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-45.875949495713094,170.6990331889127</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-45.87615216785495,170.69818717899486</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-45.876335367286586,170.697328454853</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-45.87656104759164,170.6964885464566</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-45.87673222200222,170.6956244971572</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-45.8769493918601,170.69478081956217</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>-45.877158098292995,170.69393339358604</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>-45.87733712214208,170.69307615841203</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>-45.87754868074337,170.69223518136738</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>-45.877774311629324,170.69139809415896</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>-45.878023688683164,170.69057356025965</t>
+        </is>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>-45.87824215811229,170.68973199270118</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>-45.878440800653884,170.6888801041159</t>
+        </is>
+      </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>-45.87880375956551,170.68814447353282</t>
+        </is>
+      </c>
+      <c r="V424" t="inlineStr">
+        <is>
+          <t>-45.87912637488813,170.68737562120438</t>
+        </is>
+      </c>
+      <c r="W424" t="inlineStr">
+        <is>
+          <t>-45.8794298025708,170.68658890313606</t>
+        </is>
+      </c>
+      <c r="X424" t="inlineStr">
+        <is>
+          <t>-45.879787934829416,170.68583665376568</t>
+        </is>
+      </c>
+      <c r="Y424" t="inlineStr">
+        <is>
+          <t>-45.88015711010666,170.68507452382082</t>
+        </is>
+      </c>
+      <c r="Z424" t="inlineStr">
+        <is>
+          <t>-45.880604539970676,170.68436564804378</t>
+        </is>
+      </c>
+      <c r="AA424" t="inlineStr">
+        <is>
+          <t>-45.88094610023448,170.6835952688114</t>
+        </is>
+      </c>
+      <c r="AB424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-45.87521625168527,170.70431275332143</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-45.87534996283863,170.70343079723054</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-45.87557885864465,170.70256458928156</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-45.875648589707474,170.70167204465545</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-45.87576334030705,170.70078694829428</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-45.875915915590916,170.69992094084057</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-45.876046208688464,170.69906971221295</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-45.87625484067949,170.69823265588687</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-45.87647131692151,170.69738866969286</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-45.87658941141806,170.69650110907287</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-45.876836800001946,170.6956708147497</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>-45.877041187873296,170.69482147511394</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>-45.87724151899011,170.6939703389671</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>-45.87741990997667,170.69311649604407</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>-45.877664970920726,170.6922981866744</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>-45.877863434978664,170.6914472140097</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>-45.87807884078887,170.6906039565136</t>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>-45.8782862111376,170.6897562714228</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>-45.8785002820374,170.6889198746777</t>
+        </is>
+      </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>-45.878851817422,170.68818330066748</t>
+        </is>
+      </c>
+      <c r="V425" t="inlineStr">
+        <is>
+          <t>-45.8791949981154,170.68743201644887</t>
+        </is>
+      </c>
+      <c r="W425" t="inlineStr">
+        <is>
+          <t>-45.87950455464663,170.68664755891345</t>
+        </is>
+      </c>
+      <c r="X425" t="inlineStr">
+        <is>
+          <t>-45.879906525930636,170.68591523906872</t>
+        </is>
+      </c>
+      <c r="Y425" t="inlineStr">
+        <is>
+          <t>-45.88026278455675,170.68513591295195</t>
+        </is>
+      </c>
+      <c r="Z425" t="inlineStr">
+        <is>
+          <t>-45.88068215638576,170.68441073709576</t>
+        </is>
+      </c>
+      <c r="AA425" t="inlineStr">
+        <is>
+          <t>-45.88104159570262,170.6836507435119</t>
+        </is>
+      </c>
+      <c r="AB425" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-45.87511734877165,170.70339230679673</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-45.87542757600618,170.70253955817876</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-45.875786061802856,170.7016947892781</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-45.875841722555904,170.70079991570887</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-45.875930647278494,170.69992445730082</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-45.876063098038884,170.69907609042696</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-45.876147268667566,170.69818500900115</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>-45.876327361581026,170.69732490897343</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>-45.876453952647765,170.69644111317376</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>-45.876680724974534,170.6956016891896</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>-45.87693478013391,170.6947743481847</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>-45.87715010480374,170.69392985343316</t>
+        </is>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>-45.8773883109179,170.69310109967086</t>
+        </is>
+      </c>
+      <c r="P426" t="inlineStr">
+        <is>
+          <t>-45.87754733440248,170.69223445192972</t>
+        </is>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>-45.87780969076185,170.6914175931565</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>-45.87804160892016,170.690583436722</t>
+        </is>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>-45.87825450079648,170.68973879505845</t>
+        </is>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>-45.87848058171766,170.6889067026003</t>
+        </is>
+      </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>-45.8787774322128,170.68812320304352</t>
+        </is>
+      </c>
+      <c r="V426" t="inlineStr">
+        <is>
+          <t>-45.879078493253566,170.68733627169883</t>
+        </is>
+      </c>
+      <c r="W426" t="inlineStr">
+        <is>
+          <t>-45.87941034350058,170.68657363419922</t>
+        </is>
+      </c>
+      <c r="X426" t="inlineStr">
+        <is>
+          <t>-45.87978747462726,170.6858363488099</t>
+        </is>
+      </c>
+      <c r="Y426" t="inlineStr">
+        <is>
+          <t>-45.88017470090301,170.68508474277075</t>
+        </is>
+      </c>
+      <c r="Z426" t="inlineStr">
+        <is>
+          <t>-45.880644056815626,170.68438860421608</t>
+        </is>
+      </c>
+      <c r="AA426" t="inlineStr">
+        <is>
+          <t>-45.881117787426206,170.6836950045305</t>
+        </is>
+      </c>
+      <c r="AB426" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0508/nzd0508.xlsx
+++ b/data/nzd0508/nzd0508.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB426"/>
+  <dimension ref="A1:AB430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30914,6 +30914,326 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:12+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>290.0533333333333</v>
+      </c>
+      <c r="C427" t="n">
+        <v>311.0833333333334</v>
+      </c>
+      <c r="D427" t="n">
+        <v>338.2733333333334</v>
+      </c>
+      <c r="E427" t="n">
+        <v>339.35</v>
+      </c>
+      <c r="F427" t="n">
+        <v>353.39</v>
+      </c>
+      <c r="G427" t="n">
+        <v>349.34</v>
+      </c>
+      <c r="H427" t="n">
+        <v>350.3</v>
+      </c>
+      <c r="I427" t="n">
+        <v>344.7811111111111</v>
+      </c>
+      <c r="J427" t="n">
+        <v>332.79</v>
+      </c>
+      <c r="K427" t="n">
+        <v>328.02</v>
+      </c>
+      <c r="L427" t="n">
+        <v>326.12</v>
+      </c>
+      <c r="M427" t="n">
+        <v>333.73</v>
+      </c>
+      <c r="N427" t="n">
+        <v>341.1611111111111</v>
+      </c>
+      <c r="O427" t="n">
+        <v>344.3</v>
+      </c>
+      <c r="P427" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>348.7709090909091</v>
+      </c>
+      <c r="R427" t="n">
+        <v>345.97</v>
+      </c>
+      <c r="S427" t="n">
+        <v>344.1533333333333</v>
+      </c>
+      <c r="T427" t="n">
+        <v>331.8433333333333</v>
+      </c>
+      <c r="U427" t="n">
+        <v>323.5566666666666</v>
+      </c>
+      <c r="V427" t="n">
+        <v>327.2209090909091</v>
+      </c>
+      <c r="W427" t="n">
+        <v>334.2709090909091</v>
+      </c>
+      <c r="X427" t="n">
+        <v>344.550909090909</v>
+      </c>
+      <c r="Y427" t="n">
+        <v>360.1311111111111</v>
+      </c>
+      <c r="Z427" t="n">
+        <v>388.95</v>
+      </c>
+      <c r="AA427" t="n">
+        <v>414.050909090909</v>
+      </c>
+      <c r="AB427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>236.0066666666666</v>
+      </c>
+      <c r="C428" t="n">
+        <v>263.5866666666667</v>
+      </c>
+      <c r="D428" t="n">
+        <v>272.7566666666667</v>
+      </c>
+      <c r="E428" t="n">
+        <v>267.6214285714286</v>
+      </c>
+      <c r="F428" t="n">
+        <v>341.85</v>
+      </c>
+      <c r="G428" t="n">
+        <v>360.12</v>
+      </c>
+      <c r="H428" t="n">
+        <v>356.8114285714286</v>
+      </c>
+      <c r="I428" t="n">
+        <v>345.2488888888889</v>
+      </c>
+      <c r="J428" t="n">
+        <v>341.0214285714285</v>
+      </c>
+      <c r="K428" t="n">
+        <v>330.16</v>
+      </c>
+      <c r="L428" t="n">
+        <v>338.7414285714286</v>
+      </c>
+      <c r="M428" t="n">
+        <v>337.73</v>
+      </c>
+      <c r="N428" t="n">
+        <v>341.2288888888889</v>
+      </c>
+      <c r="O428" t="n">
+        <v>349.31</v>
+      </c>
+      <c r="P428" t="n">
+        <v>353.84</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>351.2254545454546</v>
+      </c>
+      <c r="R428" t="n">
+        <v>350.7957142857143</v>
+      </c>
+      <c r="S428" t="n">
+        <v>332.9166666666667</v>
+      </c>
+      <c r="T428" t="n">
+        <v>331.4866666666667</v>
+      </c>
+      <c r="U428" t="n">
+        <v>321.4533333333334</v>
+      </c>
+      <c r="V428" t="n">
+        <v>326.4854545454546</v>
+      </c>
+      <c r="W428" t="n">
+        <v>338.1154545454545</v>
+      </c>
+      <c r="X428" t="n">
+        <v>344.5554545454545</v>
+      </c>
+      <c r="Y428" t="n">
+        <v>359.9888888888889</v>
+      </c>
+      <c r="Z428" t="n">
+        <v>388</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>417.4954545454545</v>
+      </c>
+      <c r="AB428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr"/>
+      <c r="R429" t="inlineStr"/>
+      <c r="S429" t="inlineStr"/>
+      <c r="T429" t="inlineStr"/>
+      <c r="U429" t="n">
+        <v>323.59</v>
+      </c>
+      <c r="V429" t="n">
+        <v>326.1381818181818</v>
+      </c>
+      <c r="W429" t="n">
+        <v>334.5781818181818</v>
+      </c>
+      <c r="X429" t="n">
+        <v>343.3181818181818</v>
+      </c>
+      <c r="Y429" t="n">
+        <v>358.87</v>
+      </c>
+      <c r="Z429" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>414.7781818181818</v>
+      </c>
+      <c r="AB429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>219.4766666666667</v>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="n">
+        <v>257.2066666666666</v>
+      </c>
+      <c r="E430" t="n">
+        <v>251.3342857142857</v>
+      </c>
+      <c r="F430" t="n">
+        <v>319.26</v>
+      </c>
+      <c r="G430" t="n">
+        <v>332.89</v>
+      </c>
+      <c r="H430" t="n">
+        <v>322.8342857142857</v>
+      </c>
+      <c r="I430" t="n">
+        <v>318.7322222222222</v>
+      </c>
+      <c r="J430" t="n">
+        <v>312.6342857142857</v>
+      </c>
+      <c r="K430" t="n">
+        <v>320.34</v>
+      </c>
+      <c r="L430" t="n">
+        <v>322.3442857142857</v>
+      </c>
+      <c r="M430" t="n">
+        <v>329.23</v>
+      </c>
+      <c r="N430" t="n">
+        <v>337.1622222222222</v>
+      </c>
+      <c r="O430" t="n">
+        <v>344.43</v>
+      </c>
+      <c r="P430" t="n">
+        <v>335.36</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>328.1609090909091</v>
+      </c>
+      <c r="R430" t="n">
+        <v>316.3571428571428</v>
+      </c>
+      <c r="S430" t="n">
+        <v>311.2366666666667</v>
+      </c>
+      <c r="T430" t="n">
+        <v>313.8866666666667</v>
+      </c>
+      <c r="U430" t="n">
+        <v>317.1733333333333</v>
+      </c>
+      <c r="V430" t="n">
+        <v>317.1909090909091</v>
+      </c>
+      <c r="W430" t="n">
+        <v>333.240909090909</v>
+      </c>
+      <c r="X430" t="n">
+        <v>350.370909090909</v>
+      </c>
+      <c r="Y430" t="n">
+        <v>367.6822222222222</v>
+      </c>
+      <c r="Z430" t="n">
+        <v>394.73</v>
+      </c>
+      <c r="AA430" t="n">
+        <v>420.5009090909091</v>
+      </c>
+      <c r="AB430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30925,7 +31245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35923,6 +36243,46 @@
       </c>
       <c r="B499" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -36090,28 +36450,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.690585839539038</v>
+        <v>0.618530917510045</v>
       </c>
       <c r="J2" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K2" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01179611816256698</v>
+        <v>0.009674084117129111</v>
       </c>
       <c r="M2" t="n">
-        <v>38.0705976310086</v>
+        <v>37.98488184176482</v>
       </c>
       <c r="N2" t="n">
-        <v>1698.178160071174</v>
+        <v>1692.533528102048</v>
       </c>
       <c r="O2" t="n">
-        <v>41.20895727959122</v>
+        <v>41.14041234725349</v>
       </c>
       <c r="P2" t="n">
-        <v>251.9838382016018</v>
+        <v>252.8329451349366</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36162,28 +36522,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.2701400564921568</v>
+        <v>0.2699170744209521</v>
       </c>
       <c r="J3" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K3" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002477220763073662</v>
+        <v>0.002508376491327846</v>
       </c>
       <c r="M3" t="n">
-        <v>29.86363846879155</v>
+        <v>29.80667639250713</v>
       </c>
       <c r="N3" t="n">
-        <v>1322.961722671661</v>
+        <v>1315.870008675723</v>
       </c>
       <c r="O3" t="n">
-        <v>36.37254077833525</v>
+        <v>36.27492258676402</v>
       </c>
       <c r="P3" t="n">
-        <v>280.4827910597461</v>
+        <v>280.485646143502</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36240,28 +36600,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3955638979128794</v>
+        <v>0.3902464584428647</v>
       </c>
       <c r="J4" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K4" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008991354681007646</v>
+        <v>0.008788984573250835</v>
       </c>
       <c r="M4" t="n">
-        <v>23.33552747502363</v>
+        <v>23.45482145755458</v>
       </c>
       <c r="N4" t="n">
-        <v>744.0903970680035</v>
+        <v>750.1684929747557</v>
       </c>
       <c r="O4" t="n">
-        <v>27.27802040229466</v>
+        <v>27.38920394927088</v>
       </c>
       <c r="P4" t="n">
-        <v>281.1695852609463</v>
+        <v>281.23349318829</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36312,28 +36672,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2833698896502737</v>
+        <v>0.2583451525810081</v>
       </c>
       <c r="J5" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K5" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002884626097109932</v>
+        <v>0.002421172850049724</v>
       </c>
       <c r="M5" t="n">
-        <v>31.46771517893025</v>
+        <v>31.5490709092725</v>
       </c>
       <c r="N5" t="n">
-        <v>1234.533706413074</v>
+        <v>1238.561279951554</v>
       </c>
       <c r="O5" t="n">
-        <v>35.13593184210537</v>
+        <v>35.19319934236661</v>
       </c>
       <c r="P5" t="n">
-        <v>287.9829065007806</v>
+        <v>288.2739743912437</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36384,28 +36744,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.01567663271392767</v>
+        <v>0.05598834490954877</v>
       </c>
       <c r="J6" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
-        <v>2.054346111224348e-05</v>
+        <v>0.0002655454688373915</v>
       </c>
       <c r="M6" t="n">
-        <v>18.11612160577564</v>
+        <v>18.1219811754919</v>
       </c>
       <c r="N6" t="n">
-        <v>521.5090642130078</v>
+        <v>520.5534229666976</v>
       </c>
       <c r="O6" t="n">
-        <v>22.83657295245957</v>
+        <v>22.81563987633697</v>
       </c>
       <c r="P6" t="n">
-        <v>321.9063684805774</v>
+        <v>321.4348194827617</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36462,28 +36822,28 @@
         <v>0.061</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09335610254947486</v>
+        <v>-0.06935127058515035</v>
       </c>
       <c r="J7" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K7" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001401218243616831</v>
+        <v>0.0007834445076706498</v>
       </c>
       <c r="M7" t="n">
-        <v>12.98689640797513</v>
+        <v>12.99133936840359</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0717123044963</v>
+        <v>282.5126484343519</v>
       </c>
       <c r="O7" t="n">
-        <v>16.82473513326425</v>
+        <v>16.808112577989</v>
       </c>
       <c r="P7" t="n">
-        <v>339.2843307004488</v>
+        <v>339.01029377725</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36540,28 +36900,28 @@
         <v>0.0403</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002159643360856688</v>
+        <v>0.008370394454195363</v>
       </c>
       <c r="J8" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K8" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L8" t="n">
-        <v>8.112443478092146e-07</v>
+        <v>1.233242699061332e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>12.62616681607648</v>
+        <v>12.64505046967343</v>
       </c>
       <c r="N8" t="n">
-        <v>259.6966746942274</v>
+        <v>259.2925355166258</v>
       </c>
       <c r="O8" t="n">
-        <v>16.11510703328487</v>
+        <v>16.10256301079508</v>
       </c>
       <c r="P8" t="n">
-        <v>340.5083533746101</v>
+        <v>340.437417991005</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36618,28 +36978,28 @@
         <v>0.0515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1924993643927618</v>
+        <v>0.1859236254336109</v>
       </c>
       <c r="J9" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K9" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006687291155400676</v>
+        <v>0.0063310295200385</v>
       </c>
       <c r="M9" t="n">
-        <v>12.06923047780298</v>
+        <v>12.05730902008635</v>
       </c>
       <c r="N9" t="n">
-        <v>247.6850677852565</v>
+        <v>246.7113698167193</v>
       </c>
       <c r="O9" t="n">
-        <v>15.73801346375255</v>
+        <v>15.70704841199388</v>
       </c>
       <c r="P9" t="n">
-        <v>334.1155529456821</v>
+        <v>334.191912249429</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36696,28 +37056,28 @@
         <v>0.0383</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02823660151949326</v>
+        <v>0.01501687432930274</v>
       </c>
       <c r="J10" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K10" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001518120747437957</v>
+        <v>4.350780481476857e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>12.1322852965283</v>
+        <v>12.11358063122832</v>
       </c>
       <c r="N10" t="n">
-        <v>233.7149531908451</v>
+        <v>233.0600807217969</v>
       </c>
       <c r="O10" t="n">
-        <v>15.28773865523757</v>
+        <v>15.26630540510037</v>
       </c>
       <c r="P10" t="n">
-        <v>333.8696816742049</v>
+        <v>334.023589282803</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36774,28 +37134,28 @@
         <v>0.0585</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.02642317882982525</v>
+        <v>-0.04390416469334772</v>
       </c>
       <c r="J11" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K11" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001465597379439743</v>
+        <v>0.0004118831891679609</v>
       </c>
       <c r="M11" t="n">
-        <v>10.86703167253717</v>
+        <v>10.83370508640042</v>
       </c>
       <c r="N11" t="n">
-        <v>203.0935995015395</v>
+        <v>201.6707353747368</v>
       </c>
       <c r="O11" t="n">
-        <v>14.25109116880316</v>
+        <v>14.20108219026764</v>
       </c>
       <c r="P11" t="n">
-        <v>334.3521489355957</v>
+        <v>334.5587159924628</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36852,28 +37212,28 @@
         <v>0.0399</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006345274185119171</v>
+        <v>-0.0005218247094432606</v>
       </c>
       <c r="J12" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K12" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L12" t="n">
-        <v>8.649799778104317e-06</v>
+        <v>5.956616178082186e-08</v>
       </c>
       <c r="M12" t="n">
-        <v>11.28533684334633</v>
+        <v>11.24336699745817</v>
       </c>
       <c r="N12" t="n">
-        <v>200.3821404941863</v>
+        <v>198.87415951839</v>
       </c>
       <c r="O12" t="n">
-        <v>14.15563988289425</v>
+        <v>14.10227497669755</v>
       </c>
       <c r="P12" t="n">
-        <v>331.9487041921543</v>
+        <v>332.0296526216612</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36930,28 +37290,28 @@
         <v>0.0468</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03926472510957694</v>
+        <v>0.04181390939991655</v>
       </c>
       <c r="J13" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K13" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002987782209787904</v>
+        <v>0.0003456982699858724</v>
       </c>
       <c r="M13" t="n">
-        <v>11.55698420428824</v>
+        <v>11.46912823718044</v>
       </c>
       <c r="N13" t="n">
-        <v>223.1896186603746</v>
+        <v>221.0041909442951</v>
       </c>
       <c r="O13" t="n">
-        <v>14.93953207635281</v>
+        <v>14.86620970336067</v>
       </c>
       <c r="P13" t="n">
-        <v>331.3848413453821</v>
+        <v>331.3550257389222</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37008,28 +37368,28 @@
         <v>0.0565</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03383885862691153</v>
+        <v>-0.01667105865488647</v>
       </c>
       <c r="J14" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K14" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002171882174137885</v>
+        <v>5.362224843052932e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>11.80246670202646</v>
+        <v>11.7544589594316</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6666492609502</v>
+        <v>222.0731129587221</v>
       </c>
       <c r="O14" t="n">
-        <v>14.95548893419905</v>
+        <v>14.90211773402432</v>
       </c>
       <c r="P14" t="n">
-        <v>332.7084048350571</v>
+        <v>332.5042206919809</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37086,28 +37446,28 @@
         <v>0.063</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2533002038398286</v>
+        <v>-0.2182016356458416</v>
       </c>
       <c r="J15" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01033238801578629</v>
+        <v>0.007764666995421887</v>
       </c>
       <c r="M15" t="n">
-        <v>12.19852856686862</v>
+        <v>12.20099950813691</v>
       </c>
       <c r="N15" t="n">
-        <v>261.8102776065453</v>
+        <v>261.7735105545907</v>
       </c>
       <c r="O15" t="n">
-        <v>16.18055245059776</v>
+        <v>16.1794162612435</v>
       </c>
       <c r="P15" t="n">
-        <v>336.3801804134465</v>
+        <v>335.9634070343459</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -37164,28 +37524,28 @@
         <v>0.047</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4758181277667128</v>
+        <v>-0.4372580241784664</v>
       </c>
       <c r="J16" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K16" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03361469091088631</v>
+        <v>0.02869495669971445</v>
       </c>
       <c r="M16" t="n">
-        <v>12.54925139585315</v>
+        <v>12.60353983907565</v>
       </c>
       <c r="N16" t="n">
-        <v>273.7096314625034</v>
+        <v>274.7795324839643</v>
       </c>
       <c r="O16" t="n">
-        <v>16.54417212986202</v>
+        <v>16.57647527322875</v>
       </c>
       <c r="P16" t="n">
-        <v>338.2629017057709</v>
+        <v>337.8022399378519</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -37242,28 +37602,28 @@
         <v>0.0615</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.35031901416496</v>
+        <v>-0.3174556538753038</v>
       </c>
       <c r="J17" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K17" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02309032151883716</v>
+        <v>0.01911360692381592</v>
       </c>
       <c r="M17" t="n">
-        <v>11.46423907860041</v>
+        <v>11.47482676839977</v>
       </c>
       <c r="N17" t="n">
-        <v>221.9216834202118</v>
+        <v>223.1486248852752</v>
       </c>
       <c r="O17" t="n">
-        <v>14.89703606158661</v>
+        <v>14.93816002341906</v>
       </c>
       <c r="P17" t="n">
-        <v>336.0715032187207</v>
+        <v>335.6817326164185</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -37320,28 +37680,28 @@
         <v>0.0951</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.4011862770398037</v>
+        <v>-0.3798048291367047</v>
       </c>
       <c r="J18" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K18" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02663805724219193</v>
+        <v>0.02408332856268014</v>
       </c>
       <c r="M18" t="n">
-        <v>12.26286102541431</v>
+        <v>12.31423029532247</v>
       </c>
       <c r="N18" t="n">
-        <v>252.9052665201787</v>
+        <v>253.729612714048</v>
       </c>
       <c r="O18" t="n">
-        <v>15.90299552034706</v>
+        <v>15.92889238817464</v>
       </c>
       <c r="P18" t="n">
-        <v>337.5942086553127</v>
+        <v>337.3420331176835</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -37398,28 +37758,28 @@
         <v>0.0703</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5181192514824684</v>
+        <v>-0.5132270733550871</v>
       </c>
       <c r="J19" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K19" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03837857775342246</v>
+        <v>0.03814138386033561</v>
       </c>
       <c r="M19" t="n">
-        <v>12.73405329460815</v>
+        <v>12.73597991273564</v>
       </c>
       <c r="N19" t="n">
-        <v>286.5321124173416</v>
+        <v>285.6163816440836</v>
       </c>
       <c r="O19" t="n">
-        <v>16.92725944792427</v>
+        <v>16.90018880498332</v>
       </c>
       <c r="P19" t="n">
-        <v>340.3118218876326</v>
+        <v>340.2542796807359</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -37476,28 +37836,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7041001709118254</v>
+        <v>-0.7079683206738311</v>
       </c>
       <c r="J20" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K20" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07625179604480314</v>
+        <v>0.07818638760007757</v>
       </c>
       <c r="M20" t="n">
-        <v>12.48682063232337</v>
+        <v>12.43561240620489</v>
       </c>
       <c r="N20" t="n">
-        <v>256.0406689840926</v>
+        <v>254.2473085108371</v>
       </c>
       <c r="O20" t="n">
-        <v>16.00127085528186</v>
+        <v>15.94513432087786</v>
       </c>
       <c r="P20" t="n">
-        <v>345.6804075963631</v>
+        <v>345.7267839190197</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -37554,28 +37914,28 @@
         <v>0.0978</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4514281624430063</v>
+        <v>-0.463391788145598</v>
       </c>
       <c r="J21" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K21" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02781482798261592</v>
+        <v>0.02996807422967795</v>
       </c>
       <c r="M21" t="n">
-        <v>13.0856650494857</v>
+        <v>12.96847751533558</v>
       </c>
       <c r="N21" t="n">
-        <v>299.9224766605839</v>
+        <v>296.3503194423875</v>
       </c>
       <c r="O21" t="n">
-        <v>17.31827002505111</v>
+        <v>17.21482847554362</v>
       </c>
       <c r="P21" t="n">
-        <v>337.3875827867394</v>
+        <v>337.5306940161822</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -37632,28 +37992,28 @@
         <v>0.0649</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3988590402903116</v>
+        <v>-0.3918014219616627</v>
       </c>
       <c r="J22" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K22" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02035469183261884</v>
+        <v>0.02015430857805922</v>
       </c>
       <c r="M22" t="n">
-        <v>13.97237920167747</v>
+        <v>13.84505118475703</v>
       </c>
       <c r="N22" t="n">
-        <v>321.337780540673</v>
+        <v>317.3007156930385</v>
       </c>
       <c r="O22" t="n">
-        <v>17.92589692430125</v>
+        <v>17.81293675094139</v>
       </c>
       <c r="P22" t="n">
-        <v>332.0404332680517</v>
+        <v>331.9560649194721</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -37710,28 +38070,28 @@
         <v>0.0697</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5329935557926733</v>
+        <v>-0.4872088198598881</v>
       </c>
       <c r="J23" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K23" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0337983508631764</v>
+        <v>0.02889897748966819</v>
       </c>
       <c r="M23" t="n">
-        <v>14.12719084163864</v>
+        <v>14.12393474869834</v>
       </c>
       <c r="N23" t="n">
-        <v>328.7722921819111</v>
+        <v>327.4554643753725</v>
       </c>
       <c r="O23" t="n">
-        <v>18.13207909154135</v>
+        <v>18.09573055655318</v>
       </c>
       <c r="P23" t="n">
-        <v>333.3429265525167</v>
+        <v>332.7872223995518</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -37788,28 +38148,28 @@
         <v>0.0699</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4521209567207616</v>
+        <v>-0.3867343220145472</v>
       </c>
       <c r="J24" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K24" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02668378992024067</v>
+        <v>0.0198023047370407</v>
       </c>
       <c r="M24" t="n">
-        <v>13.88025180285078</v>
+        <v>13.93229903759404</v>
       </c>
       <c r="N24" t="n">
-        <v>314.1794616491281</v>
+        <v>316.2741853808616</v>
       </c>
       <c r="O24" t="n">
-        <v>17.72510822672539</v>
+        <v>17.78409922882971</v>
       </c>
       <c r="P24" t="n">
-        <v>335.5427333586044</v>
+        <v>334.7624425439088</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -37866,28 +38226,28 @@
         <v>0.0527</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.5716171750533695</v>
+        <v>-0.4920187401326966</v>
       </c>
       <c r="J25" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K25" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03621656224597369</v>
+        <v>0.02710988254729907</v>
       </c>
       <c r="M25" t="n">
-        <v>14.74625493585838</v>
+        <v>14.86873821742262</v>
       </c>
       <c r="N25" t="n">
-        <v>370.0234345819383</v>
+        <v>374.6997678382077</v>
       </c>
       <c r="O25" t="n">
-        <v>19.23599320497744</v>
+        <v>19.35716321773952</v>
       </c>
       <c r="P25" t="n">
-        <v>349.5708280663006</v>
+        <v>348.6241902895446</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -37944,28 +38304,28 @@
         <v>0.058</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.7866181058425518</v>
+        <v>-0.6524696398132581</v>
       </c>
       <c r="J26" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K26" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06293320511977407</v>
+        <v>0.04237135379244872</v>
       </c>
       <c r="M26" t="n">
-        <v>15.32841193534617</v>
+        <v>15.75627771535508</v>
       </c>
       <c r="N26" t="n">
-        <v>389.9525024882794</v>
+        <v>412.5129630266626</v>
       </c>
       <c r="O26" t="n">
-        <v>19.74721505651568</v>
+        <v>20.31041513673865</v>
       </c>
       <c r="P26" t="n">
-        <v>365.2274621480946</v>
+        <v>363.6205643893356</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -38022,28 +38382,28 @@
         <v>0.0755</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.7970628608359602</v>
+        <v>-0.6191922603363387</v>
       </c>
       <c r="J27" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K27" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03844253197025604</v>
+        <v>0.02249831930046731</v>
       </c>
       <c r="M27" t="n">
-        <v>20.70571127103971</v>
+        <v>21.39933616319126</v>
       </c>
       <c r="N27" t="n">
-        <v>679.379387054296</v>
+        <v>720.6267813280933</v>
       </c>
       <c r="O27" t="n">
-        <v>26.0649071944309</v>
+        <v>26.8444925697636</v>
       </c>
       <c r="P27" t="n">
-        <v>376.7370878911293</v>
+        <v>374.5991265291055</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -38081,7 +38441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB426"/>
+  <dimension ref="A1:AB430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82753,6 +83113,494 @@
         </is>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:12+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-45.87488255435485,170.70425753328544</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-45.875154439514674,170.70339844414835</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-45.87548137995438,170.70254846052254</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-45.87557493162792,170.70165985804005</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-45.8757843435324,170.70079042302592</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-45.87583178522852,170.69990085891976</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-45.875983995228545,170.6990462175138</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-45.876132055401264,170.69817827060197</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>-45.87622539933441,170.6972797480412</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>-45.87638080833781,170.69640871702748</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>-45.87656088447426,170.69554861214942</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>-45.87682269958782,170.69472470902124</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>-45.87708297668045,170.69390012380086</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>-45.87730611928708,170.6930610525796</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>-45.877530841726355,170.69222551632114</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>-45.87780849237489,170.69141693267227</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>-45.87802094187302,170.69057204639816</t>
+        </is>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>-45.87824165432926,170.689731715054</t>
+        </is>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>-45.878376400968875,170.68883704517265</t>
+        </is>
+      </c>
+      <c r="U427" t="inlineStr">
+        <is>
+          <t>-45.878627695324184,170.68800222751167</t>
+        </is>
+      </c>
+      <c r="V427" t="inlineStr">
+        <is>
+          <t>-45.8789785943892,170.68725417427072</t>
+        </is>
+      </c>
+      <c r="W427" t="inlineStr">
+        <is>
+          <t>-45.87935485680858,170.68653009555598</t>
+        </is>
+      </c>
+      <c r="X427" t="inlineStr">
+        <is>
+          <t>-45.87973691176655,170.6858028430524</t>
+        </is>
+      </c>
+      <c r="Y427" t="inlineStr">
+        <is>
+          <t>-45.88011384174617,170.68504938813655</t>
+        </is>
+      </c>
+      <c r="Z427" t="inlineStr">
+        <is>
+          <t>-45.88060045489574,170.68436327493916</t>
+        </is>
+      </c>
+      <c r="AA427" t="inlineStr">
+        <is>
+          <t>-45.881056071600796,170.68365915278818</t>
+        </is>
+      </c>
+      <c r="AB427" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-45.8743995109521,170.70417760059576</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-45.874729936681774,170.70332820271432</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-45.874895822544104,170.70245157564406</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-45.87493385474188,170.70155379407407</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-45.875681204288384,170.70077335989785</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>-45.87592745245469,170.69992369469483</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>-45.87604064104381,170.699067609609</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-45.876136075982046,170.69818005143404</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>-45.876296149151315,170.6973110844034</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>-45.87639920185485,170.6964168636418</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>-45.87666936714122,170.69559665882545</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>-45.87685708012553,170.6947399357381</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>-45.87708355924067,170.6939003818042</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>-45.87734879079857,170.69308184385315</t>
+        </is>
+      </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>-45.87761532461157,170.69227128857437</t>
+        </is>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>-45.87782910157695,170.69142829132218</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>-45.878061460319636,170.6905943775225</t>
+        </is>
+      </c>
+      <c r="S428" t="inlineStr">
+        <is>
+          <t>-45.87814730695083,170.68967971799435</t>
+        </is>
+      </c>
+      <c r="T428" t="inlineStr">
+        <is>
+          <t>-45.87837349347219,170.6888351011636</t>
+        </is>
+      </c>
+      <c r="U428" t="inlineStr">
+        <is>
+          <t>-45.87861121459533,170.68798891243466</t>
+        </is>
+      </c>
+      <c r="V428" t="inlineStr">
+        <is>
+          <t>-45.87897285568263,170.6872494581807</t>
+        </is>
+      </c>
+      <c r="W428" t="inlineStr">
+        <is>
+          <t>-45.879385189439816,170.68655389659537</t>
+        </is>
+      </c>
+      <c r="X428" t="inlineStr">
+        <is>
+          <t>-45.879736948879625,170.68580286764555</t>
+        </is>
+      </c>
+      <c r="Y428" t="inlineStr">
+        <is>
+          <t>-45.88011265605778,170.68504869934077</t>
+        </is>
+      </c>
+      <c r="Z428" t="inlineStr">
+        <is>
+          <t>-45.880592534852376,170.68435867402303</t>
+        </is>
+      </c>
+      <c r="AA428" t="inlineStr">
+        <is>
+          <t>-45.881084788446316,170.6836758348677</t>
+        </is>
+      </c>
+      <c r="AB428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr"/>
+      <c r="R429" t="inlineStr"/>
+      <c r="S429" t="inlineStr"/>
+      <c r="T429" t="inlineStr"/>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>-45.87862795650847,170.6880024385272</t>
+        </is>
+      </c>
+      <c r="V429" t="inlineStr">
+        <is>
+          <t>-45.878970145934844,170.6872472313005</t>
+        </is>
+      </c>
+      <c r="W429" t="inlineStr">
+        <is>
+          <t>-45.87935728112403,170.68653199783725</t>
+        </is>
+      </c>
+      <c r="X429" t="inlineStr">
+        <is>
+          <t>-45.879726846698055,170.68579617338727</t>
+        </is>
+      </c>
+      <c r="Y429" t="inlineStr">
+        <is>
+          <t>-45.88010332802476,170.6850432804562</t>
+        </is>
+      </c>
+      <c r="Z429" t="inlineStr">
+        <is>
+          <t>-45.880607124405806,170.68436714939585</t>
+        </is>
+      </c>
+      <c r="AA429" t="inlineStr">
+        <is>
+          <t>-45.88106213480405,170.6836626749994</t>
+        </is>
+      </c>
+      <c r="AB429" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-45.874251773660106,170.70415315368325</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-45.87475684388195,170.70242858084575</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-45.87478828775508,170.70152971082015</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-45.875479305187454,170.70073995832098</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>-45.87568579951744,170.69986601225932</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>-45.87574505871473,170.69895598444128</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-45.875908163447455,170.69807910275566</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>-45.87605215925135,170.69720301724035</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>-45.87631479795448,170.6963794806225</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>-45.87652843176112,170.6955342389682</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>-45.87678402148066,170.69470757898637</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>-45.87704860562694,170.69388490161288</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>-45.877307226531926,170.69306159207332</t>
+        </is>
+      </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>-45.87745982223611,170.69218703855498</t>
+        </is>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>-45.87763544373395,170.69132155819648</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>-45.87777230150084,170.6904350127846</t>
+        </is>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>-45.877965273264536,170.68957939546436</t>
+        </is>
+      </c>
+      <c r="T430" t="inlineStr">
+        <is>
+          <t>-45.87823002070071,170.68873917273828</t>
+        </is>
+      </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>-45.878577678527705,170.68796181807048</t>
+        </is>
+      </c>
+      <c r="V430" t="inlineStr">
+        <is>
+          <t>-45.87890033090048,170.68718985714557</t>
+        </is>
+      </c>
+      <c r="W430" t="inlineStr">
+        <is>
+          <t>-45.87934673033081,170.68652371897542</t>
+        </is>
+      </c>
+      <c r="X430" t="inlineStr">
+        <is>
+          <t>-45.87978443135493,170.68583433216688</t>
+        </is>
+      </c>
+      <c r="Y430" t="inlineStr">
+        <is>
+          <t>-45.880176794383715,170.68508595892848</t>
+        </is>
+      </c>
+      <c r="Z430" t="inlineStr">
+        <is>
+          <t>-45.880648642103274,170.68439126790904</t>
+        </is>
+      </c>
+      <c r="AA430" t="inlineStr">
+        <is>
+          <t>-45.88110984463113,170.683690390425</t>
+        </is>
+      </c>
+      <c r="AB430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0508/nzd0508.xlsx
+++ b/data/nzd0508/nzd0508.xlsx
@@ -37154,9 +37154,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0473</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>0.4474005963290228</v>
       </c>
@@ -37226,9 +37232,15 @@
       <c r="E3" t="n">
         <v>0.04001195535782435</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0398</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1473</v>
+      </c>
       <c r="I3" t="n">
         <v>0.02943492281239817</v>
       </c>
@@ -37299,13 +37311,13 @@
         <v>0.08002391071579872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.15</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0612</v>
+        <v>0.0408</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.1362</v>
       </c>
       <c r="I4" t="n">
         <v>0.2780294381478781</v>
@@ -37376,9 +37388,15 @@
       <c r="E5" t="n">
         <v>0.1200358660736731</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I5" t="n">
         <v>0.0931356522393174</v>
       </c>
@@ -37448,9 +37466,15 @@
       <c r="E6" t="n">
         <v>0.1600478214330745</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0717</v>
+      </c>
       <c r="I6" t="n">
         <v>-0.08003824428331856</v>
       </c>
@@ -37521,13 +37545,13 @@
         <v>0.2000597767909988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0414</v>
+        <v>0.0482</v>
       </c>
       <c r="H7" t="n">
-        <v>0.061</v>
+        <v>0.1268</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1436202582521936</v>
@@ -37599,13 +37623,13 @@
         <v>0.2399022535308314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0317</v>
+        <v>0.0451</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0403</v>
+        <v>0.1298</v>
       </c>
       <c r="I8" t="n">
         <v>-0.06276532077496597</v>
@@ -37677,13 +37701,13 @@
         <v>0.2799142088881316</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04</v>
+        <v>0.0476</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0515</v>
+        <v>0.0815</v>
       </c>
       <c r="I9" t="n">
         <v>0.1245621205267636</v>
@@ -37755,13 +37779,13 @@
         <v>0.3199261642468468</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.033</v>
+        <v>0.0383</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0383</v>
+        <v>0.0708</v>
       </c>
       <c r="I10" t="n">
         <v>-0.03114145602153919</v>
@@ -37833,13 +37857,13 @@
         <v>0.3599381196054451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0424</v>
+        <v>0.0374</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0585</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>-0.07636334918740446</v>
@@ -37911,13 +37935,13 @@
         <v>0.3999500749643944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0317</v>
+        <v>0.0411</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0399</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>-0.02567855125179097</v>
@@ -37989,13 +38013,13 @@
         <v>0.4399620303219285</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0383</v>
+        <v>0.0441</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0468</v>
+        <v>0.099</v>
       </c>
       <c r="I13" t="n">
         <v>0.01685339056656899</v>
@@ -38070,10 +38094,10 @@
         <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04</v>
+        <v>0.0383</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0565</v>
+        <v>0.0527</v>
       </c>
       <c r="I14" t="n">
         <v>-0.02945398790564772</v>
@@ -38148,10 +38172,10 @@
         <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0447</v>
+        <v>0.0376</v>
       </c>
       <c r="H15" t="n">
-        <v>0.063</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2215764507246609</v>
@@ -38223,13 +38247,13 @@
         <v>0.5599851093317386</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0343</v>
+        <v>0.0532</v>
       </c>
       <c r="H16" t="n">
-        <v>0.047</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>-0.4406445958425885</v>
@@ -38301,13 +38325,13 @@
         <v>0.5999970646910433</v>
       </c>
       <c r="F17" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0467</v>
+        <v>0.0438</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0615</v>
+        <v>0.2</v>
       </c>
       <c r="I17" t="n">
         <v>-0.3328822156177892</v>
@@ -38379,13 +38403,13 @@
         <v>0.6400090200493894</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0576</v>
+        <v>0.0563</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0951</v>
+        <v>0.1253</v>
       </c>
       <c r="I18" t="n">
         <v>-0.4179257399020536</v>
@@ -38457,13 +38481,13 @@
         <v>0.6800209754074543</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0526</v>
+        <v>0.032</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0703</v>
+        <v>0.0484</v>
       </c>
       <c r="I19" t="n">
         <v>-0.5402622161494338</v>
@@ -38535,13 +38559,13 @@
         <v>0.7200329307655193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0505</v>
+        <v>0.0387</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.0742</v>
       </c>
       <c r="I20" t="n">
         <v>-0.6970237470619166</v>
@@ -38613,13 +38637,13 @@
         <v>0.7600041115577186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.075</v>
+        <v>0.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0605</v>
+        <v>0.0386</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0978</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="I21" t="n">
         <v>-0.4404191342814123</v>
@@ -38691,13 +38715,13 @@
         <v>0.8000160669163076</v>
       </c>
       <c r="F22" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G22" t="n">
-        <v>0.048</v>
+        <v>0.056</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0649</v>
+        <v>0.083</v>
       </c>
       <c r="I22" t="n">
         <v>-0.3564779422448695</v>
@@ -38769,13 +38793,13 @@
         <v>0.8400280222747049</v>
       </c>
       <c r="F23" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0474</v>
+        <v>0.0435</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0697</v>
+        <v>0.0925</v>
       </c>
       <c r="I23" t="n">
         <v>-0.43544298500518</v>
@@ -38847,13 +38871,13 @@
         <v>0.8799641339238444</v>
       </c>
       <c r="F24" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0486</v>
+        <v>0.0361</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0699</v>
+        <v>0.0525</v>
       </c>
       <c r="I24" t="n">
         <v>-0.3324529059977062</v>
@@ -38928,10 +38952,10 @@
         <v>0.045</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0397</v>
+        <v>0.0392</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0527</v>
+        <v>0.0486</v>
       </c>
       <c r="I25" t="n">
         <v>-0.4446476886361561</v>
@@ -39003,13 +39027,13 @@
         <v>0.9599880446418361</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04</v>
+        <v>0.0382</v>
       </c>
       <c r="H26" t="n">
-        <v>0.058</v>
+        <v>0.0591</v>
       </c>
       <c r="I26" t="n">
         <v>-0.5875445361884689</v>
@@ -39081,13 +39105,13 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0417</v>
+        <v>0.03</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0755</v>
+        <v>0.0452</v>
       </c>
       <c r="I27" t="n">
         <v>-0.5067544936486628</v>
